--- a/TestDataSet/Dataset_For_Read.xlsx
+++ b/TestDataSet/Dataset_For_Read.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\873780\workspace\Tim_Hortons_NextGen.zip_expanded\Tim_Hortons_NextGen\TestDataSet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RBI Auto 15_08_23\Tim_Hortons_NextGen\Tim_Hortons_NextGen\TestDataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B34ECC2-E176-49CA-BC33-028B9D545769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2940513-CF77-422F-8282-07AD27949B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{862AB8F8-99A5-4C15-A9F1-AE258C09F890}"/>
+    <workbookView xWindow="-165" yWindow="-165" windowWidth="29130" windowHeight="15810" xr2:uid="{862AB8F8-99A5-4C15-A9F1-AE258C09F890}"/>
   </bookViews>
   <sheets>
     <sheet name="PriceValidation" sheetId="1" r:id="rId1"/>
     <sheet name="MenuValidation" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="275">
   <si>
     <t>Item Name</t>
   </si>
@@ -347,13 +348,530 @@
   </si>
   <si>
     <t xml:space="preserve">$3.99 </t>
+  </si>
+  <si>
+    <t>LATTE - NM17 RF SM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$2.89 </t>
+  </si>
+  <si>
+    <t>LATTE - NM17 RF MD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$3.39 </t>
+  </si>
+  <si>
+    <t>LATTE - NM17 RF LG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$3.89 </t>
+  </si>
+  <si>
+    <t>DONUT CLASSIC HONEY DIP</t>
+  </si>
+  <si>
+    <t>DREAM DONUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$2.29 </t>
+  </si>
+  <si>
+    <t>DONUTS 6 ASSORTED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$6.99 </t>
+  </si>
+  <si>
+    <t>DONUTS 12 ASSORTED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$12.99 </t>
+  </si>
+  <si>
+    <t>COOKIE CLASSIC OATMEAL RAISIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$1.29 </t>
+  </si>
+  <si>
+    <t>COOKIES CLASSIC 6 ASSORTED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$6.49 </t>
+  </si>
+  <si>
+    <t>COOKIES CLASSIC 12 ASSORTED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$12.79 </t>
+  </si>
+  <si>
+    <t>CILANTRO LIME CRISPY CHICKEN LOADED WRAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$7.79 </t>
+  </si>
+  <si>
+    <t>HABANERO VEGGIE LOADED WRAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$6.79 </t>
+  </si>
+  <si>
+    <t>CILANTRO LIME CRISPY CHICKEN LOADED BOWL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$8.99 </t>
+  </si>
+  <si>
+    <t>HABANERO VEGGIE LOADED BOWL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$7.99 </t>
+  </si>
+  <si>
+    <t>$ 1.87</t>
+  </si>
+  <si>
+    <t>smallIcedCapppicino</t>
+  </si>
+  <si>
+    <t>MediumIcedCappicino</t>
+  </si>
+  <si>
+    <t>LargeIcedCappicino</t>
+  </si>
+  <si>
+    <t>SmallRefilIcedCappicino</t>
+  </si>
+  <si>
+    <t>MediumRefilIcedCappicno</t>
+  </si>
+  <si>
+    <t>LargeRefilIcedCappicno</t>
+  </si>
+  <si>
+    <t>SmallIcedCappicinoLight</t>
+  </si>
+  <si>
+    <t>MediumIcedCappicinoLight</t>
+  </si>
+  <si>
+    <t>LargeIcedCappicinoLight</t>
+  </si>
+  <si>
+    <t>SmallRefilIcedCappicinoLight</t>
+  </si>
+  <si>
+    <t>MediumRefilIcedCappicnoLight</t>
+  </si>
+  <si>
+    <t>LargeRefilIcedCappicnoLight</t>
+  </si>
+  <si>
+    <t>SmallMochaIcedCappicino</t>
+  </si>
+  <si>
+    <t>MediumMochaIcedCappicino</t>
+  </si>
+  <si>
+    <t>SmallRefilMochaIcedCappuccino</t>
+  </si>
+  <si>
+    <t>MediumRefilMochaIcedCappuccino</t>
+  </si>
+  <si>
+    <t>LargeRefilMochaIcedCappuccino</t>
+  </si>
+  <si>
+    <t>$2.99</t>
+  </si>
+  <si>
+    <t>$2.89</t>
+  </si>
+  <si>
+    <t>LargeMochaIcedCappucino</t>
+  </si>
+  <si>
+    <t>$3.39</t>
+  </si>
+  <si>
+    <t>$3.79</t>
+  </si>
+  <si>
+    <t>$4.29</t>
+  </si>
+  <si>
+    <t>$4.79</t>
+  </si>
+  <si>
+    <t>$3.69</t>
+  </si>
+  <si>
+    <t>$4.89</t>
+  </si>
+  <si>
+    <t>$299</t>
+  </si>
+  <si>
+    <t>Donut</t>
+  </si>
+  <si>
+    <t>DONUT CLASSIC HONEY CRUELLER</t>
+  </si>
+  <si>
+    <t>DONUT CLASSIC OLD FASHIONED PLAIN</t>
+  </si>
+  <si>
+    <t>DONUT CLASSIC SOUR CREAM GLAZED</t>
+  </si>
+  <si>
+    <t>DONUT CLASSIC CHOCOLATE GLAZED</t>
+  </si>
+  <si>
+    <t>DONUT SPECIALTY BOSTON CREAM</t>
+  </si>
+  <si>
+    <t>DONUT SPECIALTY APPLE FRITTER</t>
+  </si>
+  <si>
+    <t>DONUT SPECIALTY CHOCOLATE DIP</t>
+  </si>
+  <si>
+    <t>DONUT SPECIALTY DOUBLE CHOCOLATE</t>
+  </si>
+  <si>
+    <t>DONUT SPECIALTY VANILLA DIP</t>
+  </si>
+  <si>
+    <t>$349</t>
+  </si>
+  <si>
+    <t>$3.89</t>
+  </si>
+  <si>
+    <t>$2.29</t>
+  </si>
+  <si>
+    <t>AMERICANO  - NM17 SM</t>
+  </si>
+  <si>
+    <t>AMERICANO  - NM17 MD</t>
+  </si>
+  <si>
+    <t>AMERICANO  - NM17 LG</t>
+  </si>
+  <si>
+    <t>AMERICANO  - NM17 SM RF</t>
+  </si>
+  <si>
+    <t>AMERICANO  - NM17 RF MD</t>
+  </si>
+  <si>
+    <t>AMERICANO  - NM17 RF LG</t>
+  </si>
+  <si>
+    <t>$2.79</t>
+  </si>
+  <si>
+    <t>$3.29</t>
+  </si>
+  <si>
+    <t>$2.19</t>
+  </si>
+  <si>
+    <t>$2.69</t>
+  </si>
+  <si>
+    <t>$3.19</t>
+  </si>
+  <si>
+    <t>MD Redeye Original Iced Capp</t>
+  </si>
+  <si>
+    <t>LG Redeye Original Iced Capp</t>
+  </si>
+  <si>
+    <t>MD RF Redeye Original Iced Capp</t>
+  </si>
+  <si>
+    <t>LG RF Redeye Original Iced Capp</t>
+  </si>
+  <si>
+    <t>$4.59</t>
+  </si>
+  <si>
+    <t>$5.19</t>
+  </si>
+  <si>
+    <t>$4.49</t>
+  </si>
+  <si>
+    <t>$5.09</t>
+  </si>
+  <si>
+    <t>TEA LATTE - NM17 SM</t>
+  </si>
+  <si>
+    <t>TEA LATTE - NM17 MD</t>
+  </si>
+  <si>
+    <t>TEA LATTE - NM17 LG</t>
+  </si>
+  <si>
+    <t>TEA LATTE - NM17 RF SM</t>
+  </si>
+  <si>
+    <t>TEA LATTE - NM17 RF MD</t>
+  </si>
+  <si>
+    <t>TEA LATTE - NM17 RF LG</t>
+  </si>
+  <si>
+    <t>LONDON FOG SM</t>
+  </si>
+  <si>
+    <t>LONDON FOG MD</t>
+  </si>
+  <si>
+    <t>LONDON FOG LG</t>
+  </si>
+  <si>
+    <t>LONDON FOG RF SM</t>
+  </si>
+  <si>
+    <t>LONDON FOG RF MD</t>
+  </si>
+  <si>
+    <t>LONDON FOG RF LG</t>
+  </si>
+  <si>
+    <t>CLASSIC BREAKFAST DELIVERY BUNDLE</t>
+  </si>
+  <si>
+    <t>FARMER'S BREAKFAST DELIVERY BUNDLE</t>
+  </si>
+  <si>
+    <t>CLASSIC BREAKFAST DELIVERY BUNDLE FOR 2</t>
+  </si>
+  <si>
+    <t>FARMER'S BREAKFAST DELIVERY BUNDLE FOR 2</t>
+  </si>
+  <si>
+    <t>Bagels</t>
+  </si>
+  <si>
+    <t>BAGEL CLASSIC  SESAME SEED</t>
+  </si>
+  <si>
+    <t>BAGEL CLASSIC  EVERYTHING</t>
+  </si>
+  <si>
+    <t>BAGEL CLASSIC  CINNAMON RAISIN</t>
+  </si>
+  <si>
+    <t>BAGEL CLASSIC  BLUEBERRY</t>
+  </si>
+  <si>
+    <t>BAGEL CLASSIC  TWELVE GRAIN</t>
+  </si>
+  <si>
+    <t>BAGEL CLASSIC  PLAIN</t>
+  </si>
+  <si>
+    <t>$40.63</t>
+  </si>
+  <si>
+    <t>$44.23</t>
+  </si>
+  <si>
+    <t>$19.41</t>
+  </si>
+  <si>
+    <t>$21.21</t>
+  </si>
+  <si>
+    <t>$1.59</t>
+  </si>
+  <si>
+    <t>$4.19</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>$3.59</t>
+  </si>
+  <si>
+    <t>$4.09</t>
+  </si>
+  <si>
+    <t>$3.99</t>
+  </si>
+  <si>
+    <t>37255</t>
+  </si>
+  <si>
+    <t>Combo</t>
+  </si>
+  <si>
+    <t>Breakfast Combo</t>
+  </si>
+  <si>
+    <t>Lunch Combo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bacon English Muffin Combo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bacon Biscuit Combo </t>
+  </si>
+  <si>
+    <t>Bacon Bagel Combo</t>
+  </si>
+  <si>
+    <t>Bacon Classic Wrap Combo</t>
+  </si>
+  <si>
+    <t>Bacon Farmers Wrap Combo</t>
+  </si>
+  <si>
+    <t>Sausage English Muffin Combo</t>
+  </si>
+  <si>
+    <t>Sausage Biscuit Combo</t>
+  </si>
+  <si>
+    <t>Sausage Bagel Combo</t>
+  </si>
+  <si>
+    <t>Sausage Classic Wrap Combo</t>
+  </si>
+  <si>
+    <t>Sausage Farmers Wrap Combo</t>
+  </si>
+  <si>
+    <t>Egg &amp; Cheese English Muffin Combo</t>
+  </si>
+  <si>
+    <t>Egg &amp; Cheese Biscuit Combo</t>
+  </si>
+  <si>
+    <t>Egg &amp; Cheese Bagel Combo</t>
+  </si>
+  <si>
+    <t>Sausage &amp; Bacon English Muffin Combo</t>
+  </si>
+  <si>
+    <t>Sausage &amp; Bacon Biscuit Combo</t>
+  </si>
+  <si>
+    <t>Sausage &amp; Bacon Bagel Combo</t>
+  </si>
+  <si>
+    <t>Sausage &amp; Bacon Classic Wrap Combo</t>
+  </si>
+  <si>
+    <t>Bacon Croissant Combo</t>
+  </si>
+  <si>
+    <t>Bacon Belt Combo</t>
+  </si>
+  <si>
+    <t>Sausage Croissant Combo</t>
+  </si>
+  <si>
+    <t>Sausage Belt Combo</t>
+  </si>
+  <si>
+    <t>$7.69</t>
+  </si>
+  <si>
+    <t>$7.99</t>
+  </si>
+  <si>
+    <t>$7.29</t>
+  </si>
+  <si>
+    <t>Store ID</t>
+  </si>
+  <si>
+    <t>7000054</t>
+  </si>
+  <si>
+    <t>$6.99</t>
+  </si>
+  <si>
+    <t>$7.49</t>
+  </si>
+  <si>
+    <t>$6.49</t>
+  </si>
+  <si>
+    <t>$8.49</t>
+  </si>
+  <si>
+    <t>Turkey Bacon Club Combo</t>
+  </si>
+  <si>
+    <t>Grilled Cheese Melt Combo</t>
+  </si>
+  <si>
+    <t>Slow Cooked Chicken Wrap Combo</t>
+  </si>
+  <si>
+    <t>Crispy Chicken Wrap Combo</t>
+  </si>
+  <si>
+    <t>Ham  and  Cheddar  Combo</t>
+  </si>
+  <si>
+    <t>Turkey Melt Combo</t>
+  </si>
+  <si>
+    <t>Crispy Chicken Bacon Ranch Wrap Combo</t>
+  </si>
+  <si>
+    <t>Slow Cooked Chicken Bacon Ranch Wrap Combo</t>
+  </si>
+  <si>
+    <t>BLT  Combo</t>
+  </si>
+  <si>
+    <t>Bacon  Grilled  Cheese  Melt  Combo</t>
+  </si>
+  <si>
+    <t>3pc  Chicken Strips  Combo</t>
+  </si>
+  <si>
+    <t>$8.99</t>
+  </si>
+  <si>
+    <t>$9.49</t>
+  </si>
+  <si>
+    <t>$829</t>
+  </si>
+  <si>
+    <t>$9.29</t>
+  </si>
+  <si>
+    <t>$849</t>
+  </si>
+  <si>
+    <t>$8.39</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,8 +898,32 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -394,8 +936,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -431,19 +979,81 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -455,12 +1065,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -468,12 +1072,102 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{8118D932-8C04-4D19-897E-9CE5FD1F239A}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{0B8C8782-7324-46C9-A38F-80B0BC6B3E58}"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{C8131FD1-36F5-4A16-A0B0-AF68F7E82357}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -782,24 +1476,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C89BD5A-2EAF-45CD-8BAE-5BC6AE1DE393}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:Y70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="Q2" zoomScale="118" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="1" max="1" width="30.54296875" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="33.28515625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.81640625" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" customWidth="1"/>
+    <col min="7" max="7" width="33.26953125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" customWidth="1"/>
+    <col min="10" max="10" width="43.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" customWidth="1"/>
+    <col min="15" max="15" width="34.453125" customWidth="1"/>
+    <col min="18" max="18" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="34.26953125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="44.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -809,551 +1509,1480 @@
       <c r="C1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="9" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="R1" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="S1" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="V1" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>3.79</v>
       </c>
-      <c r="C2" s="4">
-        <v>36793</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="R2" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="S2" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="V2" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="W2" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="X2" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y2" s="33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>1.49</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="S3" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="V3" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="W3" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="X3" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y3" s="34" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="R4" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="S4" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="V4" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="W4" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="X4" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y4" s="34" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>2.29</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J5" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="P5" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="R5" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="S5" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="V5" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="W5" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="X5" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y5" s="34" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>1.83</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J6" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="P6" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="R6" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="S6" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="V6" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="W6" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="X6" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y6" s="34" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>4.29</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="13" t="s">
+      <c r="E7" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J7" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="P7" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="R7" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="S7" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="V7" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="W7" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="X7" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y7" s="34" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>2.99</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J8" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="O8" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="P8" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="V8" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="W8" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="X8" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y8" s="34" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>1.99</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J9" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="O9" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="P9" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="V9" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="W9" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="X9" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y9" s="34" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>5.29</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J10" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="O10" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="P10" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="V10" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="W10" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="X10" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y10" s="34" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>5.29</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J11" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="O11" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="P11" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="V11" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="W11" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="X11" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y11" s="34" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>5.29</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="J12" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="V12" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="W12" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="X12" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y12" s="34" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>6.79</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="4" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="J13" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="V13" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="W13" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="X13" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y13" s="34" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>6.79</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="4" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="J14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="V14" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="W14" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>7.79</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="J15" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="V15" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="W15" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>4.29</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="4" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J16" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="V16" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="W16" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>1.79</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="4" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J17" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="V17" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="W17" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="26"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>2.99</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="4" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J18" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="V18" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="W18" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>1.99</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J19" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="V19" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="W19" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="26"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>8.99</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J20" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="V20" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="W20" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="26"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>7.99</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="H21" s="4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D22" s="8" t="s">
+      <c r="J21" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="V21" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="W21" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="X21" s="26"/>
+      <c r="Y21" s="26"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A22" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D23" s="8" t="s">
+      <c r="J22" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="V22" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="W22" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="26"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A23" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="H23" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D24" s="8" t="s">
+      <c r="J23" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="V23" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="W23" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A24" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D25" s="9" t="s">
+      <c r="J24" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A25" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D26" s="9" t="s">
+      <c r="J25" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="D26" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D27" s="9" t="s">
+      <c r="J26" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="D27" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D28" s="9" t="s">
+      <c r="J27" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="B28" s="25"/>
+      <c r="D28" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D29" s="9" t="s">
+      <c r="J28" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="B29" s="25"/>
+      <c r="D29" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G30" s="8" t="s">
+      <c r="J29" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="B30" s="25"/>
+      <c r="G30" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G31" s="8" t="s">
+      <c r="J30" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="B31" s="25"/>
+      <c r="G31" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="4" t="s">
         <v>59</v>
       </c>
+      <c r="J31" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A32" s="27"/>
+      <c r="B32" s="25"/>
+      <c r="J32" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="K32" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="L32" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" s="27"/>
+      <c r="B33" s="25"/>
+      <c r="J33" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="L33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" s="27"/>
+      <c r="B34" s="25"/>
+      <c r="J34" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="K34" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" s="27"/>
+      <c r="B35" s="25"/>
+      <c r="J35" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="K35" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="L35" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="26"/>
+      <c r="B36" s="25"/>
+      <c r="J36" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="K36" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="L36" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" s="26"/>
+      <c r="B37" s="25"/>
+      <c r="J37" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K37" s="15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" s="26"/>
+      <c r="B38" s="25"/>
+      <c r="J38" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="K38" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="L38" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" s="26"/>
+      <c r="B39" s="25"/>
+      <c r="J39" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="L39" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40" s="26"/>
+      <c r="B40" s="25"/>
+      <c r="J40" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="K40" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="26"/>
+      <c r="B41" s="25"/>
+      <c r="J41" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="K41" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="L41" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A42" s="26"/>
+      <c r="B42" s="25"/>
+      <c r="J42" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="K42" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="L42" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A43" s="26"/>
+      <c r="B43" s="25"/>
+      <c r="J43" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="K43" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A44" s="26"/>
+      <c r="B44" s="25"/>
+      <c r="J44" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="K44" s="15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A45" s="26"/>
+      <c r="B45" s="25"/>
+      <c r="J45" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="K45" s="15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A46" s="26"/>
+      <c r="B46" s="25"/>
+      <c r="J46" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="K46" s="15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A47" s="26"/>
+      <c r="B47" s="25"/>
+      <c r="J47" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="K47" s="15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J48" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="K48" s="15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="49" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J49" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="K49" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="50" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J50" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="K50" s="20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="51" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J51" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="K51" s="20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="52" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J52" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="K52" s="20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J53" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="K53" s="20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="54" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J54" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="K54" s="20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="55" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J55" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="K55" s="21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="56" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J56" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="K56" s="21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="57" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J57" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="K57" s="21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="58" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J58" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="K58" s="21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="59" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J59" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="K59" s="20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="60" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J60" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="K60" s="20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="61" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J61" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="K61" s="20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="62" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J62" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="K62" s="20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="63" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J63" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="K63" s="20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J64" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="K64" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J65" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="K65" s="20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="66" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J66" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="K66" s="20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="67" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J67" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="K67" s="20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="68" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J68" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="K68" s="20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="69" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J69" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="K69" s="20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="70" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J70" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="K70" s="20" t="s">
+        <v>170</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="V1:Y1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1367,13 +2996,13 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.1796875" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1381,7 +3010,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1389,7 +3018,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1397,7 +3026,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -1405,7 +3034,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1413,7 +3042,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -1425,279 +3054,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100700AEA4C8E3B674291EBE7198E438601" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4b45c156fade0dac411393b04a4f0c8d">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dcb942df-3a61-41b6-b657-91361cbf3949" xmlns:ns3="baffb89b-295c-4d6b-8a66-27746726239f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="30dce60c6df1ee1af80068df564680b7" ns2:_="" ns3:_="">
-    <xsd:import namespace="dcb942df-3a61-41b6-b657-91361cbf3949"/>
-    <xsd:import namespace="baffb89b-295c-4d6b-8a66-27746726239f"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="dcb942df-3a61-41b6-b657-91361cbf3949" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c7a4ccb7-b193-4637-aace-c29a390d3203}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="dcb942df-3a61-41b6-b657-91361cbf3949">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="baffb89b-295c-4d6b-8a66-27746726239f" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="15" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="5e524548-c070-4903-8a90-5a0229687ac0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="23" nillable="true" ma:displayName="Location" ma:description="" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="baffb89b-295c-4d6b-8a66-27746726239f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="dcb942df-3a61-41b6-b657-91361cbf3949" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A194391-E596-4A19-B5E0-4E856445F977}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3AFEDAAB-89A3-4A58-B55E-8E71091C61C1}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{686138FE-9160-40CB-81FF-767A8902ECE4}"/>
 </file>
--- a/TestDataSet/Dataset_For_Read.xlsx
+++ b/TestDataSet/Dataset_For_Read.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RBI Auto 15_08_23\Tim_Hortons_NextGen\Tim_Hortons_NextGen\TestDataSet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TH_V1_31102023New\MasterCode\TestDataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2940513-CF77-422F-8282-07AD27949B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64774EE-5410-476E-8E47-5B788F8D9EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-165" yWindow="-165" windowWidth="29130" windowHeight="15810" xr2:uid="{862AB8F8-99A5-4C15-A9F1-AE258C09F890}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{862AB8F8-99A5-4C15-A9F1-AE258C09F890}"/>
   </bookViews>
   <sheets>
     <sheet name="PriceValidation" sheetId="1" r:id="rId1"/>
-    <sheet name="MenuValidation" sheetId="2" r:id="rId2"/>
+    <sheet name="BC TIER 4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="MenuValidation" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="457">
   <si>
     <t>Item Name</t>
   </si>
@@ -497,381 +498,928 @@
     <t>$3.39</t>
   </si>
   <si>
+    <t>$3.69</t>
+  </si>
+  <si>
+    <t>$4.89</t>
+  </si>
+  <si>
+    <t>$299</t>
+  </si>
+  <si>
+    <t>Donut</t>
+  </si>
+  <si>
+    <t>DONUT CLASSIC HONEY CRUELLER</t>
+  </si>
+  <si>
+    <t>DONUT CLASSIC OLD FASHIONED PLAIN</t>
+  </si>
+  <si>
+    <t>DONUT CLASSIC SOUR CREAM GLAZED</t>
+  </si>
+  <si>
+    <t>DONUT CLASSIC CHOCOLATE GLAZED</t>
+  </si>
+  <si>
+    <t>DONUT SPECIALTY BOSTON CREAM</t>
+  </si>
+  <si>
+    <t>DONUT SPECIALTY APPLE FRITTER</t>
+  </si>
+  <si>
+    <t>DONUT SPECIALTY CHOCOLATE DIP</t>
+  </si>
+  <si>
+    <t>DONUT SPECIALTY DOUBLE CHOCOLATE</t>
+  </si>
+  <si>
+    <t>DONUT SPECIALTY VANILLA DIP</t>
+  </si>
+  <si>
+    <t>$349</t>
+  </si>
+  <si>
+    <t>$3.89</t>
+  </si>
+  <si>
+    <t>$2.29</t>
+  </si>
+  <si>
+    <t>AMERICANO  - NM17 SM</t>
+  </si>
+  <si>
+    <t>AMERICANO  - NM17 MD</t>
+  </si>
+  <si>
+    <t>AMERICANO  - NM17 LG</t>
+  </si>
+  <si>
+    <t>AMERICANO  - NM17 SM RF</t>
+  </si>
+  <si>
+    <t>AMERICANO  - NM17 RF MD</t>
+  </si>
+  <si>
+    <t>AMERICANO  - NM17 RF LG</t>
+  </si>
+  <si>
+    <t>$2.79</t>
+  </si>
+  <si>
+    <t>$3.29</t>
+  </si>
+  <si>
+    <t>$2.19</t>
+  </si>
+  <si>
+    <t>$2.69</t>
+  </si>
+  <si>
+    <t>$3.19</t>
+  </si>
+  <si>
+    <t>MD Redeye Original Iced Capp</t>
+  </si>
+  <si>
+    <t>LG Redeye Original Iced Capp</t>
+  </si>
+  <si>
+    <t>MD RF Redeye Original Iced Capp</t>
+  </si>
+  <si>
+    <t>LG RF Redeye Original Iced Capp</t>
+  </si>
+  <si>
+    <t>$4.59</t>
+  </si>
+  <si>
+    <t>$5.19</t>
+  </si>
+  <si>
+    <t>$4.49</t>
+  </si>
+  <si>
+    <t>$5.09</t>
+  </si>
+  <si>
+    <t>TEA LATTE - NM17 SM</t>
+  </si>
+  <si>
+    <t>TEA LATTE - NM17 MD</t>
+  </si>
+  <si>
+    <t>TEA LATTE - NM17 LG</t>
+  </si>
+  <si>
+    <t>TEA LATTE - NM17 RF SM</t>
+  </si>
+  <si>
+    <t>TEA LATTE - NM17 RF MD</t>
+  </si>
+  <si>
+    <t>TEA LATTE - NM17 RF LG</t>
+  </si>
+  <si>
+    <t>LONDON FOG SM</t>
+  </si>
+  <si>
+    <t>LONDON FOG MD</t>
+  </si>
+  <si>
+    <t>LONDON FOG LG</t>
+  </si>
+  <si>
+    <t>LONDON FOG RF SM</t>
+  </si>
+  <si>
+    <t>LONDON FOG RF MD</t>
+  </si>
+  <si>
+    <t>LONDON FOG RF LG</t>
+  </si>
+  <si>
+    <t>CLASSIC BREAKFAST DELIVERY BUNDLE</t>
+  </si>
+  <si>
+    <t>FARMER'S BREAKFAST DELIVERY BUNDLE</t>
+  </si>
+  <si>
+    <t>CLASSIC BREAKFAST DELIVERY BUNDLE FOR 2</t>
+  </si>
+  <si>
+    <t>FARMER'S BREAKFAST DELIVERY BUNDLE FOR 2</t>
+  </si>
+  <si>
+    <t>Bagels</t>
+  </si>
+  <si>
+    <t>BAGEL CLASSIC  SESAME SEED</t>
+  </si>
+  <si>
+    <t>BAGEL CLASSIC  EVERYTHING</t>
+  </si>
+  <si>
+    <t>BAGEL CLASSIC  CINNAMON RAISIN</t>
+  </si>
+  <si>
+    <t>BAGEL CLASSIC  BLUEBERRY</t>
+  </si>
+  <si>
+    <t>BAGEL CLASSIC  TWELVE GRAIN</t>
+  </si>
+  <si>
+    <t>BAGEL CLASSIC  PLAIN</t>
+  </si>
+  <si>
+    <t>$40.63</t>
+  </si>
+  <si>
+    <t>$44.23</t>
+  </si>
+  <si>
+    <t>$19.41</t>
+  </si>
+  <si>
+    <t>$21.21</t>
+  </si>
+  <si>
+    <t>$1.59</t>
+  </si>
+  <si>
+    <t>$4.19</t>
+  </si>
+  <si>
+    <t>$3.59</t>
+  </si>
+  <si>
+    <t>$4.09</t>
+  </si>
+  <si>
+    <t>$3.99</t>
+  </si>
+  <si>
+    <t>Combo</t>
+  </si>
+  <si>
+    <t>Breakfast Combo</t>
+  </si>
+  <si>
+    <t>Lunch Combo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bacon English Muffin Combo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bacon Biscuit Combo </t>
+  </si>
+  <si>
+    <t>Bacon Bagel Combo</t>
+  </si>
+  <si>
+    <t>Bacon Classic Wrap Combo</t>
+  </si>
+  <si>
+    <t>Bacon Farmers Wrap Combo</t>
+  </si>
+  <si>
+    <t>Sausage English Muffin Combo</t>
+  </si>
+  <si>
+    <t>Sausage Biscuit Combo</t>
+  </si>
+  <si>
+    <t>Sausage Bagel Combo</t>
+  </si>
+  <si>
+    <t>Sausage Classic Wrap Combo</t>
+  </si>
+  <si>
+    <t>Sausage Farmers Wrap Combo</t>
+  </si>
+  <si>
+    <t>Egg &amp; Cheese English Muffin Combo</t>
+  </si>
+  <si>
+    <t>Egg &amp; Cheese Biscuit Combo</t>
+  </si>
+  <si>
+    <t>Egg &amp; Cheese Bagel Combo</t>
+  </si>
+  <si>
+    <t>Sausage &amp; Bacon English Muffin Combo</t>
+  </si>
+  <si>
+    <t>Sausage &amp; Bacon Biscuit Combo</t>
+  </si>
+  <si>
+    <t>Sausage &amp; Bacon Bagel Combo</t>
+  </si>
+  <si>
+    <t>Sausage &amp; Bacon Classic Wrap Combo</t>
+  </si>
+  <si>
+    <t>Bacon Croissant Combo</t>
+  </si>
+  <si>
+    <t>Bacon Belt Combo</t>
+  </si>
+  <si>
+    <t>Sausage Croissant Combo</t>
+  </si>
+  <si>
+    <t>Sausage Belt Combo</t>
+  </si>
+  <si>
+    <t>$7.69</t>
+  </si>
+  <si>
+    <t>$7.99</t>
+  </si>
+  <si>
+    <t>$7.29</t>
+  </si>
+  <si>
+    <t>Store ID</t>
+  </si>
+  <si>
+    <t>7000054</t>
+  </si>
+  <si>
+    <t>$6.99</t>
+  </si>
+  <si>
+    <t>$7.49</t>
+  </si>
+  <si>
+    <t>$6.49</t>
+  </si>
+  <si>
+    <t>$8.49</t>
+  </si>
+  <si>
+    <t>Turkey Bacon Club Combo</t>
+  </si>
+  <si>
+    <t>Grilled Cheese Melt Combo</t>
+  </si>
+  <si>
+    <t>Slow Cooked Chicken Wrap Combo</t>
+  </si>
+  <si>
+    <t>Crispy Chicken Wrap Combo</t>
+  </si>
+  <si>
+    <t>Ham  and  Cheddar  Combo</t>
+  </si>
+  <si>
+    <t>Turkey Melt Combo</t>
+  </si>
+  <si>
+    <t>Crispy Chicken Bacon Ranch Wrap Combo</t>
+  </si>
+  <si>
+    <t>Slow Cooked Chicken Bacon Ranch Wrap Combo</t>
+  </si>
+  <si>
+    <t>BLT  Combo</t>
+  </si>
+  <si>
+    <t>Bacon  Grilled  Cheese  Melt  Combo</t>
+  </si>
+  <si>
+    <t>3pc  Chicken Strips  Combo</t>
+  </si>
+  <si>
+    <t>$9.49</t>
+  </si>
+  <si>
+    <t>$9.29</t>
+  </si>
+  <si>
+    <t>Breakfast Sandwiches</t>
+  </si>
+  <si>
+    <t>Item name</t>
+  </si>
+  <si>
+    <t>$4.39</t>
+  </si>
+  <si>
+    <t>$5.39</t>
+  </si>
+  <si>
+    <t>Soups &amp; Chili</t>
+  </si>
+  <si>
+    <t>RG Chicken Noodle Soup</t>
+  </si>
+  <si>
+    <t>LG Chicken Noodle Soup</t>
+  </si>
+  <si>
+    <t>RG Chili</t>
+  </si>
+  <si>
+    <t>LG Chili</t>
+  </si>
+  <si>
+    <t>$5.99</t>
+  </si>
+  <si>
+    <t>$5.79</t>
+  </si>
+  <si>
+    <t>Egg and Cheese English Muffin Sandwich</t>
+  </si>
+  <si>
+    <t>Sausage and Bacon English Muffin Sandwich</t>
+  </si>
+  <si>
+    <t>Bacon Biscuit Sandwich</t>
+  </si>
+  <si>
+    <t>Sausage biscuit Sandwich</t>
+  </si>
+  <si>
+    <t>Egg and Cheese Biscuit Sandwich</t>
+  </si>
+  <si>
+    <t>Sausage and Bacon Biscuit Sandwich</t>
+  </si>
+  <si>
+    <t>Bacon Bagel Sandwich</t>
+  </si>
+  <si>
+    <t>Sausage Bagel Sandwich</t>
+  </si>
+  <si>
+    <t>Egg and Cheese Bagel Sandwich</t>
+  </si>
+  <si>
+    <t>Sausage and Bacon Bagel Sandwich</t>
+  </si>
+  <si>
+    <t>Bacon English Muffin Sandwich</t>
+  </si>
+  <si>
+    <t>Sausage English Muffin Sandwich</t>
+  </si>
+  <si>
+    <t>Bacon Croissant Sandwich</t>
+  </si>
+  <si>
+    <t>Sausage Croissant Sandwich</t>
+  </si>
+  <si>
+    <t>Egg and Cheese Croissant Sandwich</t>
+  </si>
+  <si>
+    <t>Sausage and Bacon Croissant Sandwich</t>
+  </si>
+  <si>
+    <t>Bacon Everything Croissant Sandwich</t>
+  </si>
+  <si>
+    <t>Sausage Everything Croissant Sandwich</t>
+  </si>
+  <si>
+    <t>Egg and Cheese Everything Croissant Sandwich</t>
+  </si>
+  <si>
+    <t>Simply Sausage English Muffin Sandwich</t>
+  </si>
+  <si>
+    <t>Simply Sausage Biscuit Sandwich</t>
+  </si>
+  <si>
+    <t>Steak English Muffin Sandwich</t>
+  </si>
+  <si>
+    <t>Steak Biscuit Sandwich</t>
+  </si>
+  <si>
+    <t>Smoky Honey Bacon Biscuit</t>
+  </si>
+  <si>
+    <t>Smoky Honey Bacon English Muffin</t>
+  </si>
+  <si>
+    <t>Simply SmokyHoney Bacon(cheese)</t>
+  </si>
+  <si>
+    <t>Simply Bacon(cheese)</t>
+  </si>
+  <si>
+    <t>Simply Steak(cheese)</t>
+  </si>
+  <si>
+    <t>Simply Sausage(cheese)</t>
+  </si>
+  <si>
+    <t>Egg Breakfast sandwich</t>
+  </si>
+  <si>
+    <t>Bacon Breakfast sandwich</t>
+  </si>
+  <si>
+    <t>Sausage Breakfast sandwich</t>
+  </si>
+  <si>
+    <t>Steak Breakfast sandwich</t>
+  </si>
+  <si>
+    <t>SmokyHoney Bacon Breakfast sandwich</t>
+  </si>
+  <si>
+    <t>$4.99</t>
+  </si>
+  <si>
+    <t>$5.29</t>
+  </si>
+  <si>
+    <t>SM Beans</t>
+  </si>
+  <si>
+    <t>RG Beans</t>
+  </si>
+  <si>
+    <t>$1.70</t>
+  </si>
+  <si>
+    <t>$3.20</t>
+  </si>
+  <si>
+    <t>Item name- Sandwiches</t>
+  </si>
+  <si>
+    <t>Slow Cooked Chicken Wrap</t>
+  </si>
+  <si>
+    <t>Crispy Chicken Wrap</t>
+  </si>
+  <si>
+    <t>Slow Cooked Chicken Bacon Ranch Wrap</t>
+  </si>
+  <si>
+    <t>Crispy Chicken Bacon Ranch Wrap</t>
+  </si>
+  <si>
+    <t>Spicy Chicken Bacon Ranch Wrap</t>
+  </si>
+  <si>
+    <t>Lunch</t>
+  </si>
+  <si>
+    <t>Item Name: Lunch Wraps</t>
+  </si>
+  <si>
+    <t>Turkey Bacon Club Sandwich</t>
+  </si>
+  <si>
+    <t>Roast Beef &amp; Cheddar</t>
+  </si>
+  <si>
+    <t>Item Name: Lunch Sandwiches &amp; Melts</t>
+  </si>
+  <si>
+    <t>Bacon Grilled Cheese</t>
+  </si>
+  <si>
+    <t>Small Pumpkin Spice Iced Capp</t>
+  </si>
+  <si>
+    <t>Medium Pumpkin Spice Iced Capp</t>
+  </si>
+  <si>
+    <t>Large Pumpkin Spice Iced Capp</t>
+  </si>
+  <si>
+    <t>Refil Small Pumpkin Spice Iced Capp</t>
+  </si>
+  <si>
+    <t>Refil Medium Pumpkin Spice Iced Capp</t>
+  </si>
+  <si>
+    <t>Refil Large Pumpkin Spice Iced Capp</t>
+  </si>
+  <si>
+    <t>Small Redeye Iced Capp</t>
+  </si>
+  <si>
+    <t>Refil Small Redeye Iced Capp</t>
+  </si>
+  <si>
+    <t>ICED CAPPUCCINO CARAMEL  SM</t>
+  </si>
+  <si>
+    <t>ICED CAPPUCCINO CARAMEL  MD</t>
+  </si>
+  <si>
+    <t>ICED CAPPUCCINO CARAMEL  LG</t>
+  </si>
+  <si>
+    <t>ICED CAPPUCCINO CARAMEL  RF SM</t>
+  </si>
+  <si>
+    <t>ICED CAPPUCCINO CARAMEL  RF MD</t>
+  </si>
+  <si>
+    <t>ICED CAPPUCCINO CARAMEL  RF LG</t>
+  </si>
+  <si>
+    <t>ICED CAPPUCCINO VANILLA SM</t>
+  </si>
+  <si>
+    <t>ICED CAPPUCCINO VANILLA MD</t>
+  </si>
+  <si>
+    <t>ICED CAPPUCCINO VANILLA LG</t>
+  </si>
+  <si>
+    <t>ICED CAPPUCCINO VANILLA RF SM</t>
+  </si>
+  <si>
+    <t>ICED CAPPUCCINO VANILLA RF MD</t>
+  </si>
+  <si>
+    <t>ICED CAPPUCCINO VANILLA RF LG</t>
+  </si>
+  <si>
+    <t>CREAMY CHOCOLATE CHILL SM</t>
+  </si>
+  <si>
+    <t>CREAMY CHOCOLATE CHILL MD</t>
+  </si>
+  <si>
+    <t>CREAMY CHOCOLATE CHILL LG</t>
+  </si>
+  <si>
+    <t>CREAMY CHOCOLATE CHILL RF SM</t>
+  </si>
+  <si>
+    <t>CREAMY CHOCOLATE CHILL RF MD</t>
+  </si>
+  <si>
+    <t>CREAMY CHOCOLATE CHILL RF LG</t>
+  </si>
+  <si>
+    <t>CREAMY VANILLA CHILL SM</t>
+  </si>
+  <si>
+    <t>CREAMY VANILLA CHILL MD</t>
+  </si>
+  <si>
+    <t>CREAMY VANILLA CHILL LG</t>
+  </si>
+  <si>
+    <t>CREAMY VANILLA CHILL RF SM</t>
+  </si>
+  <si>
+    <t>CREAMY VANILLA CHILL RF MD</t>
+  </si>
+  <si>
+    <t>CREAMY VANILLA CHILL RF LG</t>
+  </si>
+  <si>
+    <t>Small Strawberry Creamy Chill</t>
+  </si>
+  <si>
+    <t>Medium Strawberry Creamy Chill</t>
+  </si>
+  <si>
+    <t>Large Strawberry Creamy Chill</t>
+  </si>
+  <si>
+    <t>S RF Strawberry Creamy Chill</t>
+  </si>
+  <si>
+    <t>M RF Strawberry Creamy Chill</t>
+  </si>
+  <si>
+    <t>L RF Strawberry Creamy Chill</t>
+  </si>
+  <si>
+    <t>LEMONADE ORIGINAL SM</t>
+  </si>
+  <si>
+    <t>LEMONADE ORIGINAL MD</t>
+  </si>
+  <si>
+    <t>LEMONADE ORIGINAL LG</t>
+  </si>
+  <si>
+    <t>LEMONADE ORIGINAL RF SM</t>
+  </si>
+  <si>
+    <t>LEMONADE ORIGINAL RF MD</t>
+  </si>
+  <si>
+    <t>LEMONADE ORIGINAL RF LG</t>
+  </si>
+  <si>
+    <t>S Strawberry Frozen Lemonade</t>
+  </si>
+  <si>
+    <t>M Strawberry Frozen Lemonade</t>
+  </si>
+  <si>
+    <t>L Strawberry Frozen Lemonade</t>
+  </si>
+  <si>
+    <t>S RF Strawberry Frozen Lemonade</t>
+  </si>
+  <si>
+    <t>M RF Strawberry Frozen Lemonade</t>
+  </si>
+  <si>
+    <t>L RF Strawberry Frozen Lemonade</t>
+  </si>
+  <si>
+    <t>FRUIT SMOOTHIE STRAWBERRY SM</t>
+  </si>
+  <si>
+    <t>FRUIT SMOOTHIE STRAWBERRY MD</t>
+  </si>
+  <si>
+    <t>FRUIT SMOOTHIE STRAWBERRY  LG</t>
+  </si>
+  <si>
+    <t>FRUIT SMOOTHIE STRAWBERRY RF SM</t>
+  </si>
+  <si>
+    <t>FRUIT SMOOTHIE STRAWBERRY RF MD</t>
+  </si>
+  <si>
+    <t>FRUIT SMOOTHIE STRAWBERRY RF LG</t>
+  </si>
+  <si>
+    <t>CLASSIC LEMONADE SM</t>
+  </si>
+  <si>
+    <t>CLASSIC LEMONADE MD</t>
+  </si>
+  <si>
+    <t>CLASSIC LEMONADE LG</t>
+  </si>
+  <si>
+    <t>CLASSIC LEMONADE RF SM</t>
+  </si>
+  <si>
+    <t>CLASSIC LEMONADE RF MD</t>
+  </si>
+  <si>
+    <t>CLASSIC LEMONADE RF LG</t>
+  </si>
+  <si>
+    <t>$2.09</t>
+  </si>
+  <si>
+    <t>$2.39</t>
+  </si>
+  <si>
+    <t>RETRO DONUTS 6 ASSORTED</t>
+  </si>
+  <si>
+    <t>RETRO DONUTS 12 ASSORTED</t>
+  </si>
+  <si>
+    <t>$9.99</t>
+  </si>
+  <si>
+    <t>OMELETTE BITES</t>
+  </si>
+  <si>
+    <t>BRK WRAP BACON GRILLED</t>
+  </si>
+  <si>
+    <t>BRK WRAP BACON GRILLED NO EGG</t>
+  </si>
+  <si>
+    <t>BRK WRAP EGG GRILLED</t>
+  </si>
+  <si>
+    <t>BRK WRAP SAUSAGE GRILLED</t>
+  </si>
+  <si>
+    <t>BRK WRAP SAUSAGE GRILLED NO EGG</t>
+  </si>
+  <si>
+    <t>S Baileys Iced Capp</t>
+  </si>
+  <si>
+    <t>M Baileys Iced Capp</t>
+  </si>
+  <si>
+    <t>RS Baileys Iced Capp</t>
+  </si>
+  <si>
+    <t>RM Baileys Iced Capp</t>
+  </si>
+  <si>
+    <t>L Baileys Iced Capp</t>
+  </si>
+  <si>
+    <t>RL Baileys Iced Capp</t>
+  </si>
+  <si>
+    <t>Cater-Egg &amp; Cheese Wrap</t>
+  </si>
+  <si>
+    <t>Cater-Turkey Bacon Club</t>
+  </si>
+  <si>
+    <t>Cater-Crispy Chicken Bacon Ranch Wrap</t>
+  </si>
+  <si>
+    <t>Cater-Slow-Cooked Chicken Bacon Ranch Wrap</t>
+  </si>
+  <si>
+    <t>Catering Item</t>
+  </si>
+  <si>
+    <t>CRAVEABLES DELIVERY BUNDLE</t>
+  </si>
+  <si>
+    <t>PANINI TURKEY MELT</t>
+  </si>
+  <si>
+    <t>PANINI HAM MELT</t>
+  </si>
+  <si>
+    <t>LUNCH WRAPS BUNDLE - 6 PEOPLE</t>
+  </si>
+  <si>
+    <t>LUNCH WRAPS PLATTER - 12 PEOPLE</t>
+  </si>
+  <si>
+    <t>$44.99</t>
+  </si>
+  <si>
+    <t>$89.99</t>
+  </si>
+  <si>
+    <t>SEA SALT POTATO WEDGES</t>
+  </si>
+  <si>
+    <t>CROISSANT CLASSIC PLAIN</t>
+  </si>
+  <si>
+    <t>Smokey Honey Bacon Farmers Breakfast Sandwich English Muffin</t>
+  </si>
+  <si>
+    <t>$329</t>
+  </si>
+  <si>
+    <t>$229</t>
+  </si>
+  <si>
+    <t>$1849</t>
+  </si>
+  <si>
+    <t>$1855</t>
+  </si>
+  <si>
+    <t>$279</t>
+  </si>
+  <si>
+    <t>$7.59</t>
+  </si>
+  <si>
+    <t>$8.79</t>
+  </si>
+  <si>
+    <t>$9.79</t>
+  </si>
+  <si>
+    <t>$4.79</t>
+  </si>
+  <si>
+    <t>$859</t>
+  </si>
+  <si>
+    <t>$879</t>
+  </si>
+  <si>
+    <t>7000044</t>
+  </si>
+  <si>
+    <t>$269</t>
+  </si>
+  <si>
+    <t>$4.29</t>
+  </si>
+  <si>
+    <t>$479</t>
+  </si>
+  <si>
+    <t>$7.79</t>
+  </si>
+  <si>
     <t>$3.79</t>
   </si>
   <si>
-    <t>$4.29</t>
-  </si>
-  <si>
-    <t>$4.79</t>
-  </si>
-  <si>
-    <t>$3.69</t>
-  </si>
-  <si>
-    <t>$4.89</t>
-  </si>
-  <si>
-    <t>$299</t>
-  </si>
-  <si>
-    <t>Donut</t>
-  </si>
-  <si>
-    <t>DONUT CLASSIC HONEY CRUELLER</t>
-  </si>
-  <si>
-    <t>DONUT CLASSIC OLD FASHIONED PLAIN</t>
-  </si>
-  <si>
-    <t>DONUT CLASSIC SOUR CREAM GLAZED</t>
-  </si>
-  <si>
-    <t>DONUT CLASSIC CHOCOLATE GLAZED</t>
-  </si>
-  <si>
-    <t>DONUT SPECIALTY BOSTON CREAM</t>
-  </si>
-  <si>
-    <t>DONUT SPECIALTY APPLE FRITTER</t>
-  </si>
-  <si>
-    <t>DONUT SPECIALTY CHOCOLATE DIP</t>
-  </si>
-  <si>
-    <t>DONUT SPECIALTY DOUBLE CHOCOLATE</t>
-  </si>
-  <si>
-    <t>DONUT SPECIALTY VANILLA DIP</t>
-  </si>
-  <si>
-    <t>$349</t>
-  </si>
-  <si>
-    <t>$3.89</t>
-  </si>
-  <si>
-    <t>$2.29</t>
-  </si>
-  <si>
-    <t>AMERICANO  - NM17 SM</t>
-  </si>
-  <si>
-    <t>AMERICANO  - NM17 MD</t>
-  </si>
-  <si>
-    <t>AMERICANO  - NM17 LG</t>
-  </si>
-  <si>
-    <t>AMERICANO  - NM17 SM RF</t>
-  </si>
-  <si>
-    <t>AMERICANO  - NM17 RF MD</t>
-  </si>
-  <si>
-    <t>AMERICANO  - NM17 RF LG</t>
-  </si>
-  <si>
-    <t>$2.79</t>
-  </si>
-  <si>
-    <t>$3.29</t>
-  </si>
-  <si>
-    <t>$2.19</t>
-  </si>
-  <si>
-    <t>$2.69</t>
-  </si>
-  <si>
-    <t>$3.19</t>
-  </si>
-  <si>
-    <t>MD Redeye Original Iced Capp</t>
-  </si>
-  <si>
-    <t>LG Redeye Original Iced Capp</t>
-  </si>
-  <si>
-    <t>MD RF Redeye Original Iced Capp</t>
-  </si>
-  <si>
-    <t>LG RF Redeye Original Iced Capp</t>
-  </si>
-  <si>
-    <t>$4.59</t>
-  </si>
-  <si>
-    <t>$5.19</t>
-  </si>
-  <si>
-    <t>$4.49</t>
-  </si>
-  <si>
-    <t>$5.09</t>
-  </si>
-  <si>
-    <t>TEA LATTE - NM17 SM</t>
-  </si>
-  <si>
-    <t>TEA LATTE - NM17 MD</t>
-  </si>
-  <si>
-    <t>TEA LATTE - NM17 LG</t>
-  </si>
-  <si>
-    <t>TEA LATTE - NM17 RF SM</t>
-  </si>
-  <si>
-    <t>TEA LATTE - NM17 RF MD</t>
-  </si>
-  <si>
-    <t>TEA LATTE - NM17 RF LG</t>
-  </si>
-  <si>
-    <t>LONDON FOG SM</t>
-  </si>
-  <si>
-    <t>LONDON FOG MD</t>
-  </si>
-  <si>
-    <t>LONDON FOG LG</t>
-  </si>
-  <si>
-    <t>LONDON FOG RF SM</t>
-  </si>
-  <si>
-    <t>LONDON FOG RF MD</t>
-  </si>
-  <si>
-    <t>LONDON FOG RF LG</t>
-  </si>
-  <si>
-    <t>CLASSIC BREAKFAST DELIVERY BUNDLE</t>
-  </si>
-  <si>
-    <t>FARMER'S BREAKFAST DELIVERY BUNDLE</t>
-  </si>
-  <si>
-    <t>CLASSIC BREAKFAST DELIVERY BUNDLE FOR 2</t>
-  </si>
-  <si>
-    <t>FARMER'S BREAKFAST DELIVERY BUNDLE FOR 2</t>
-  </si>
-  <si>
-    <t>Bagels</t>
-  </si>
-  <si>
-    <t>BAGEL CLASSIC  SESAME SEED</t>
-  </si>
-  <si>
-    <t>BAGEL CLASSIC  EVERYTHING</t>
-  </si>
-  <si>
-    <t>BAGEL CLASSIC  CINNAMON RAISIN</t>
-  </si>
-  <si>
-    <t>BAGEL CLASSIC  BLUEBERRY</t>
-  </si>
-  <si>
-    <t>BAGEL CLASSIC  TWELVE GRAIN</t>
-  </si>
-  <si>
-    <t>BAGEL CLASSIC  PLAIN</t>
-  </si>
-  <si>
-    <t>$40.63</t>
-  </si>
-  <si>
-    <t>$44.23</t>
-  </si>
-  <si>
-    <t>$19.41</t>
-  </si>
-  <si>
-    <t>$21.21</t>
-  </si>
-  <si>
-    <t>$1.59</t>
-  </si>
-  <si>
-    <t>$4.19</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>$3.59</t>
-  </si>
-  <si>
-    <t>$4.09</t>
-  </si>
-  <si>
-    <t>$3.99</t>
-  </si>
-  <si>
-    <t>37255</t>
-  </si>
-  <si>
-    <t>Combo</t>
-  </si>
-  <si>
-    <t>Breakfast Combo</t>
-  </si>
-  <si>
-    <t>Lunch Combo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bacon English Muffin Combo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bacon Biscuit Combo </t>
-  </si>
-  <si>
-    <t>Bacon Bagel Combo</t>
-  </si>
-  <si>
-    <t>Bacon Classic Wrap Combo</t>
-  </si>
-  <si>
-    <t>Bacon Farmers Wrap Combo</t>
-  </si>
-  <si>
-    <t>Sausage English Muffin Combo</t>
-  </si>
-  <si>
-    <t>Sausage Biscuit Combo</t>
-  </si>
-  <si>
-    <t>Sausage Bagel Combo</t>
-  </si>
-  <si>
-    <t>Sausage Classic Wrap Combo</t>
-  </si>
-  <si>
-    <t>Sausage Farmers Wrap Combo</t>
-  </si>
-  <si>
-    <t>Egg &amp; Cheese English Muffin Combo</t>
-  </si>
-  <si>
-    <t>Egg &amp; Cheese Biscuit Combo</t>
-  </si>
-  <si>
-    <t>Egg &amp; Cheese Bagel Combo</t>
-  </si>
-  <si>
-    <t>Sausage &amp; Bacon English Muffin Combo</t>
-  </si>
-  <si>
-    <t>Sausage &amp; Bacon Biscuit Combo</t>
-  </si>
-  <si>
-    <t>Sausage &amp; Bacon Bagel Combo</t>
-  </si>
-  <si>
-    <t>Sausage &amp; Bacon Classic Wrap Combo</t>
-  </si>
-  <si>
-    <t>Bacon Croissant Combo</t>
-  </si>
-  <si>
-    <t>Bacon Belt Combo</t>
-  </si>
-  <si>
-    <t>Sausage Croissant Combo</t>
-  </si>
-  <si>
-    <t>Sausage Belt Combo</t>
-  </si>
-  <si>
-    <t>$7.69</t>
-  </si>
-  <si>
-    <t>$7.99</t>
-  </si>
-  <si>
-    <t>$7.29</t>
-  </si>
-  <si>
-    <t>Store ID</t>
-  </si>
-  <si>
-    <t>7000054</t>
-  </si>
-  <si>
-    <t>$6.99</t>
-  </si>
-  <si>
-    <t>$7.49</t>
-  </si>
-  <si>
-    <t>$6.49</t>
-  </si>
-  <si>
-    <t>$8.49</t>
-  </si>
-  <si>
-    <t>Turkey Bacon Club Combo</t>
-  </si>
-  <si>
-    <t>Grilled Cheese Melt Combo</t>
-  </si>
-  <si>
-    <t>Slow Cooked Chicken Wrap Combo</t>
-  </si>
-  <si>
-    <t>Crispy Chicken Wrap Combo</t>
-  </si>
-  <si>
-    <t>Ham  and  Cheddar  Combo</t>
-  </si>
-  <si>
-    <t>Turkey Melt Combo</t>
-  </si>
-  <si>
-    <t>Crispy Chicken Bacon Ranch Wrap Combo</t>
-  </si>
-  <si>
-    <t>Slow Cooked Chicken Bacon Ranch Wrap Combo</t>
-  </si>
-  <si>
-    <t>BLT  Combo</t>
-  </si>
-  <si>
-    <t>Bacon  Grilled  Cheese  Melt  Combo</t>
-  </si>
-  <si>
-    <t>3pc  Chicken Strips  Combo</t>
-  </si>
-  <si>
-    <t>$8.99</t>
-  </si>
-  <si>
-    <t>$9.49</t>
-  </si>
-  <si>
-    <t>$829</t>
-  </si>
-  <si>
-    <t>$9.29</t>
-  </si>
-  <si>
-    <t>$849</t>
-  </si>
-  <si>
-    <t>$8.39</t>
+    <t>$2.49</t>
+  </si>
+  <si>
+    <t>$439</t>
+  </si>
+  <si>
+    <t>$449</t>
+  </si>
+  <si>
+    <t>37426</t>
+  </si>
+  <si>
+    <t>$319</t>
+  </si>
+  <si>
+    <t>7000038</t>
+  </si>
+  <si>
+    <t>$3.49</t>
+  </si>
+  <si>
+    <t>CAN BC Tier3 Twists RTDInfusers</t>
+  </si>
+  <si>
+    <t>CAN BC Tier2 Twists RTDInfusers</t>
+  </si>
+  <si>
+    <t>CAN MB Tier1 Pizza</t>
+  </si>
+  <si>
+    <t>CAN MB Tier2  Pizza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAN AB FMCity FRNY </t>
+  </si>
+  <si>
+    <t>SM Hot Chocolate</t>
+  </si>
+  <si>
+    <t>$239</t>
+  </si>
+  <si>
+    <t>$5.49</t>
+  </si>
+  <si>
+    <t>$5.89</t>
+  </si>
+  <si>
+    <t>7000035</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -922,8 +1470,69 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -942,8 +1551,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -961,6 +1600,15 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -995,11 +1643,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -1008,8 +1658,27 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1022,16 +1691,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -1042,22 +1702,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1068,44 +1795,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1114,31 +1804,734 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="6">
+    <cellStyle name="Comma 2" xfId="3" xr:uid="{B6C94B01-134B-499D-BC23-CF15FF8DC439}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{8118D932-8C04-4D19-897E-9CE5FD1F239A}"/>
     <cellStyle name="Normal 2 2" xfId="2" xr:uid="{0B8C8782-7324-46C9-A38F-80B0BC6B3E58}"/>
+    <cellStyle name="Normal 2 3" xfId="5" xr:uid="{128E3040-7F92-45A2-82E3-FFF7A18E9B7F}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{B83D2983-0C07-4D1E-A8D4-90A37E93F5FF}"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="86">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1164,8 +2557,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{C8131FD1-36F5-4A16-A0B0-AF68F7E82357}">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="85"/>
+      <tableStyleElement type="headerRow" dxfId="84"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1476,1519 +2869,5137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C89BD5A-2EAF-45CD-8BAE-5BC6AE1DE393}">
-  <dimension ref="A1:Y70"/>
+  <dimension ref="A1:AP139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q2" zoomScale="118" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+    <sheetView topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J139" sqref="J139:K139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.54296875" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="15.7265625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="23.81640625" customWidth="1"/>
-    <col min="5" max="5" width="15.81640625" customWidth="1"/>
-    <col min="7" max="7" width="33.26953125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" customWidth="1"/>
-    <col min="10" max="10" width="43.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="33.28515625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="43.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" customWidth="1"/>
-    <col min="15" max="15" width="34.453125" customWidth="1"/>
-    <col min="18" max="18" width="32.453125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="34.26953125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="44.54296875" customWidth="1"/>
+    <col min="15" max="15" width="34.42578125" customWidth="1"/>
+    <col min="18" max="18" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="44.5703125" customWidth="1"/>
+    <col min="28" max="28" width="43.140625" customWidth="1"/>
+    <col min="29" max="29" width="26" customWidth="1"/>
+    <col min="31" max="31" width="25.140625" customWidth="1"/>
+    <col min="34" max="34" width="35.5703125" customWidth="1"/>
+    <col min="37" max="37" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.140625" customWidth="1"/>
+    <col min="41" max="41" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:42" ht="30" customHeight="1">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="P1" s="16" t="s">
+      <c r="O1" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="P1" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="R1" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="S1" s="24" t="s">
+      <c r="R1" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="S1" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="V1" s="35" t="s">
-        <v>225</v>
-      </c>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="V1" s="67" t="s">
+        <v>220</v>
+      </c>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="AB1" s="68" t="s">
+        <v>266</v>
+      </c>
+      <c r="AC1" s="68"/>
+      <c r="AE1" s="69" t="s">
+        <v>270</v>
+      </c>
+      <c r="AF1" s="69"/>
+      <c r="AH1" s="70" t="s">
+        <v>323</v>
+      </c>
+      <c r="AI1" s="70"/>
+      <c r="AK1" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="AL1" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4">
         <v>3.79</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="24" t="s">
         <v>76</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="24" t="s">
         <v>34</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="O2" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="P2" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="R2" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="S2" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="V2" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="W2" s="28" t="s">
+      <c r="O2" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="P2" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="S2" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="V2" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="W2" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="X2" s="28" t="s">
-        <v>227</v>
+      <c r="X2" s="33" t="s">
+        <v>222</v>
       </c>
       <c r="Y2" s="33" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AB2" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="AC2" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE2" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="AF2" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH2" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="AI2" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK2" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="AL2" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="AO2" s="52" t="s">
+        <v>409</v>
+      </c>
+      <c r="AP2" s="53" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" ht="30">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4">
         <v>1.49</v>
       </c>
-      <c r="C3" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="24" t="s">
         <v>78</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="24" t="s">
         <v>35</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="O3" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="P3" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="R3" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="S3" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="V3" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="W3" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="X3" s="28" t="s">
-        <v>258</v>
-      </c>
-      <c r="Y3" s="34" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="O3" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="P3" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="S3" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="W3" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y3" s="59" t="s">
+        <v>430</v>
+      </c>
+      <c r="AB3" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="AC3" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AF3" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="AI3" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK3" s="38" t="s">
+        <v>326</v>
+      </c>
+      <c r="AL3" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="AO3" s="52" t="s">
+        <v>410</v>
+      </c>
+      <c r="AP3" s="53" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" ht="30">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="32" t="s">
-        <v>253</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="23" t="s">
+        <v>445</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="24" t="s">
         <v>34</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="24" t="s">
         <v>82</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="O4" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="P4" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="R4" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="S4" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="V4" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="W4" s="30" t="s">
+      <c r="O4" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="S4" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="V4" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="W4" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="X4" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="X4" s="28" t="s">
-        <v>259</v>
-      </c>
-      <c r="Y4" s="34" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y4" s="60" t="s">
+        <v>432</v>
+      </c>
+      <c r="AB4" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="AC4" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AF4" s="31" t="s">
+        <v>276</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="AI4" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK4" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="AL4" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="AO4" s="52" t="s">
+        <v>411</v>
+      </c>
+      <c r="AP4" s="53" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="4">
         <v>2.29</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="24" t="s">
         <v>35</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="24" t="s">
         <v>83</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="O5" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="P5" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="R5" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="S5" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="V5" s="28" t="s">
-        <v>230</v>
-      </c>
-      <c r="W5" s="30" t="s">
+      <c r="O5" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="P5" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="S5" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="V5" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="W5" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="X5" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="X5" s="28" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y5" s="34" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y5" s="60" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB5" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC5" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AF5" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AI5" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="AK5" s="54" t="s">
+        <v>414</v>
+      </c>
+      <c r="AL5" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="AO5" s="52" t="s">
+        <v>408</v>
+      </c>
+      <c r="AP5" s="62" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4">
         <v>1.83</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>38</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="24" t="s">
         <v>82</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="24" t="s">
         <v>84</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="O6" s="17" t="s">
+      <c r="O6" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="P6" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="R6" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="S6" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="V6" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="W6" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="X6" s="28" t="s">
-        <v>261</v>
-      </c>
-      <c r="Y6" s="34" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="P6" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="S6" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="V6" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="W6" s="58" t="s">
+        <v>438</v>
+      </c>
+      <c r="X6" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y6" s="60" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB6" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC6" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AF6" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AI6" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="AK6" s="54" t="s">
+        <v>415</v>
+      </c>
+      <c r="AL6" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="AO6" s="36" t="s">
+        <v>417</v>
+      </c>
+      <c r="AP6" s="40" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4">
         <v>4.29</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="24" t="s">
         <v>83</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="24" t="s">
         <v>85</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="O7" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="P7" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="R7" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="S7" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="V7" s="29" t="s">
-        <v>232</v>
-      </c>
-      <c r="W7" s="30" t="s">
-        <v>251</v>
-      </c>
-      <c r="X7" s="28" t="s">
+      <c r="O7" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="P7" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="S7" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="W7" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="X7" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y7" s="60" t="s">
+        <v>432</v>
+      </c>
+      <c r="AB7" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC7" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="Y7" s="34" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AE7" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF7" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AI7" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="AO7" s="36" t="s">
+        <v>416</v>
+      </c>
+      <c r="AP7" s="40" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="4">
         <v>2.99</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="24" t="s">
         <v>84</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="24" t="s">
         <v>86</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="O8" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="P8" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="V8" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="W8" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="X8" s="28" t="s">
-        <v>262</v>
-      </c>
-      <c r="Y8" s="34" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="O8" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="P8" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="V8" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="W8" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="X8" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y8" s="60" t="s">
+        <v>433</v>
+      </c>
+      <c r="AB8" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="AC8" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="AF8" s="31" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="4">
         <v>1.99</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>41</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="24" t="s">
         <v>85</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="24" t="s">
         <v>88</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="O9" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="P9" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="V9" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="W9" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="X9" s="28" t="s">
-        <v>267</v>
-      </c>
-      <c r="Y9" s="34" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="O9" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="P9" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="V9" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="W9" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="X9" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y9" s="60" t="s">
+        <v>430</v>
+      </c>
+      <c r="AB9" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="AC9" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" ht="30">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="4">
         <v>5.29</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>42</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="24" t="s">
         <v>86</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="24" t="s">
         <v>90</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="O10" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="P10" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="V10" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="W10" s="30" t="s">
-        <v>255</v>
-      </c>
-      <c r="X10" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="Y10" s="34" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="O10" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="P10" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="V10" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="W10" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="X10" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y10" s="60" t="s">
+        <v>433</v>
+      </c>
+      <c r="AB10" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC10" s="15" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="4">
         <v>5.29</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="61">
+        <v>7000001</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="24" t="s">
         <v>88</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="24" t="s">
         <v>92</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="O11" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="P11" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="V11" s="29" t="s">
-        <v>236</v>
-      </c>
-      <c r="W11" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="X11" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="Y11" s="34" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="O11" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="P11" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="V11" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="W11" s="58" t="s">
+        <v>438</v>
+      </c>
+      <c r="X11" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y11" s="59" t="s">
+        <v>430</v>
+      </c>
+      <c r="AB11" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="AC11" s="15" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="4">
         <v>5.29</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="24" t="s">
         <v>90</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="24" t="s">
         <v>94</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="V12" s="29" t="s">
-        <v>237</v>
-      </c>
-      <c r="W12" s="30" t="s">
-        <v>251</v>
-      </c>
-      <c r="X12" s="28" t="s">
-        <v>265</v>
-      </c>
-      <c r="Y12" s="34" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" ht="29" x14ac:dyDescent="0.35">
+      <c r="O12" s="47" t="s">
+        <v>393</v>
+      </c>
+      <c r="P12" s="48" t="s">
+        <v>395</v>
+      </c>
+      <c r="V12" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="W12" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="X12" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y12" s="59" t="s">
+        <v>430</v>
+      </c>
+      <c r="AB12" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="AC12" s="15" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" ht="30">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="4">
         <v>6.79</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>45</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="24" t="s">
         <v>92</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="24" t="s">
         <v>96</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="V13" s="29" t="s">
-        <v>238</v>
-      </c>
-      <c r="W13" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="X13" s="28" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y13" s="34" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" ht="29" x14ac:dyDescent="0.35">
+      <c r="O13" s="47" t="s">
+        <v>394</v>
+      </c>
+      <c r="P13" s="48" t="s">
+        <v>425</v>
+      </c>
+      <c r="V13" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="W13" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="X13" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y13" s="59" t="s">
+        <v>430</v>
+      </c>
+      <c r="AB13" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="AC13" s="15" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" ht="30">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="4">
         <v>6.79</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>46</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="24" t="s">
         <v>94</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="24" t="s">
         <v>98</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="V14" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="W14" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="26"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="O14" s="54" t="s">
+        <v>420</v>
+      </c>
+      <c r="P14" s="55" t="s">
+        <v>427</v>
+      </c>
+      <c r="V14" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="W14" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="AB14" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="AC14" s="15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" ht="30">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="4">
         <v>7.79</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="24" t="s">
         <v>96</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="24" t="s">
         <v>100</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="V15" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="W15" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="26"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="O15" s="54" t="s">
+        <v>421</v>
+      </c>
+      <c r="P15" s="55" t="s">
+        <v>424</v>
+      </c>
+      <c r="V15" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="W15" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="AB15" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC15" s="15" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" ht="30">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="4">
         <v>4.29</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>48</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="24" t="s">
         <v>98</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J16" s="24" t="s">
         <v>102</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="V16" s="29" t="s">
-        <v>241</v>
-      </c>
-      <c r="W16" s="30" t="s">
-        <v>250</v>
-      </c>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="26"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="V16" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="W16" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="AB16" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="AC16" s="15" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="4">
         <v>1.79</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>49</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="24" t="s">
         <v>100</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="24" t="s">
         <v>104</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="V17" s="29" t="s">
-        <v>242</v>
-      </c>
-      <c r="W17" s="30" t="s">
-        <v>250</v>
-      </c>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="26"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="V17" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="W17" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="AB17" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="AC17" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="4">
         <v>2.99</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="24" t="s">
         <v>102</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="J18" s="24" t="s">
         <v>106</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="V18" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="W18" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="26"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="V18" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="W18" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="AB18" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="AC18" s="15" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="4">
         <v>1.99</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="6" t="s">
         <v>65</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="24" t="s">
         <v>108</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="V19" s="29" t="s">
-        <v>244</v>
-      </c>
-      <c r="W19" s="30" t="s">
-        <v>250</v>
-      </c>
-      <c r="X19" s="26"/>
-      <c r="Y19" s="26"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="V19" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="W19" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="AB19" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AC19" s="15" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="4">
         <v>8.99</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="6" t="s">
         <v>67</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" s="24" t="s">
         <v>110</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="V20" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="W20" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="X20" s="26"/>
-      <c r="Y20" s="26"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="V20" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="W20" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="AB20" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AC20" s="15" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="4">
         <v>7.99</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="6" t="s">
         <v>69</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="J21" s="24" t="s">
         <v>111</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="V21" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="W21" s="30" t="s">
-        <v>249</v>
-      </c>
-      <c r="X21" s="26"/>
-      <c r="Y21" s="26"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A22" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="D22" s="7" t="s">
+      <c r="V21" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="W21" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="AB21" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AC21" s="1"/>
+    </row>
+    <row r="22" spans="1:29">
+      <c r="A22" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>54</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="24" t="s">
         <v>71</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="J22" s="24" t="s">
         <v>113</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="V22" s="29" t="s">
-        <v>247</v>
-      </c>
-      <c r="W22" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="X22" s="26"/>
-      <c r="Y22" s="26"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A23" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="D23" s="7" t="s">
+      <c r="V22" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="W22" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="AB22" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AC22" s="1"/>
+    </row>
+    <row r="23" spans="1:29">
+      <c r="A23" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>55</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="6" t="s">
         <v>73</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="J23" s="24" t="s">
         <v>115</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="V23" s="29" t="s">
-        <v>248</v>
-      </c>
-      <c r="W23" s="30" t="s">
-        <v>250</v>
-      </c>
-      <c r="X23" s="26"/>
-      <c r="Y23" s="26"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A24" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="D24" s="7" t="s">
+      <c r="V23" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="W23" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="AB23" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="AC23" s="1"/>
+    </row>
+    <row r="24" spans="1:29">
+      <c r="A24" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>56</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="6" t="s">
         <v>36</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="J24" s="24" t="s">
         <v>117</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A25" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="D25" s="7" t="s">
+      <c r="AB24" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="AC24" s="1"/>
+    </row>
+    <row r="25" spans="1:29">
+      <c r="A25" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>65</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="6" t="s">
         <v>37</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="J25" s="24" t="s">
         <v>119</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="D26" s="7" t="s">
+      <c r="AB25" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="AC25" s="1"/>
+    </row>
+    <row r="26" spans="1:29">
+      <c r="D26" s="6" t="s">
         <v>67</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="6" t="s">
         <v>38</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="J26" s="10" t="s">
+      <c r="J26" s="24" t="s">
         <v>121</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="D27" s="7" t="s">
+      <c r="AB26" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="AC26" s="51" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29">
+      <c r="D27" s="6" t="s">
         <v>69</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="J27" s="24" t="s">
         <v>123</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B28" s="25"/>
-      <c r="D28" s="7" t="s">
+      <c r="AB27" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="AC27" s="51" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29">
+      <c r="B28" s="9"/>
+      <c r="D28" s="6" t="s">
         <v>71</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J28" s="10" t="s">
+      <c r="J28" s="24" t="s">
         <v>125</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B29" s="25"/>
-      <c r="D29" s="7" t="s">
+      <c r="AB28" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="AC28" s="1"/>
+    </row>
+    <row r="29" spans="1:29">
+      <c r="B29" s="9"/>
+      <c r="D29" s="6" t="s">
         <v>73</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="6" t="s">
         <v>41</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J29" s="10" t="s">
+      <c r="J29" s="24" t="s">
         <v>127</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B30" s="25"/>
-      <c r="G30" s="7" t="s">
+      <c r="AB29" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AC29" s="1"/>
+    </row>
+    <row r="30" spans="1:29">
+      <c r="B30" s="9"/>
+      <c r="G30" s="6" t="s">
         <v>42</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="J30" s="10" t="s">
+      <c r="J30" s="24" t="s">
         <v>129</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B31" s="25"/>
-      <c r="G31" s="7" t="s">
+      <c r="AB30" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC30" s="1"/>
+    </row>
+    <row r="31" spans="1:29">
+      <c r="B31" s="9"/>
+      <c r="G31" s="6" t="s">
         <v>43</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J31" s="13" t="s">
+      <c r="J31" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="K31" s="14" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A32" s="27"/>
-      <c r="B32" s="25"/>
-      <c r="J32" s="13" t="s">
+      <c r="K31" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC31" s="1"/>
+    </row>
+    <row r="32" spans="1:29">
+      <c r="A32" s="11"/>
+      <c r="B32" s="9"/>
+      <c r="J32" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="K32" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="L32" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A33" s="27"/>
-      <c r="B33" s="25"/>
-      <c r="J33" s="13" t="s">
+      <c r="K32" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB32" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AC32" s="1"/>
+    </row>
+    <row r="33" spans="1:29">
+      <c r="A33" s="11"/>
+      <c r="B33" s="9"/>
+      <c r="J33" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="K33" s="15" t="s">
+      <c r="K33" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB33" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="AC33" s="1"/>
+    </row>
+    <row r="34" spans="1:29">
+      <c r="A34" s="11"/>
+      <c r="B34" s="9"/>
+      <c r="J34" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="K34" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB34" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="AC34" s="1"/>
+    </row>
+    <row r="35" spans="1:29">
+      <c r="A35" s="11"/>
+      <c r="B35" s="9"/>
+      <c r="J35" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="K35" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB35" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="AC35" s="1"/>
+    </row>
+    <row r="36" spans="1:29">
+      <c r="A36" s="10"/>
+      <c r="B36" s="9"/>
+      <c r="J36" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="K36" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB36" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AC36" s="1"/>
+    </row>
+    <row r="37" spans="1:29">
+      <c r="A37" s="10"/>
+      <c r="B37" s="9"/>
+      <c r="J37" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="K37" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB37" s="36" t="s">
+        <v>396</v>
+      </c>
+      <c r="AC37" s="46" t="s">
         <v>219</v>
       </c>
-      <c r="L33" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A34" s="27"/>
-      <c r="B34" s="25"/>
-      <c r="J34" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="K34" s="15" t="s">
+    </row>
+    <row r="38" spans="1:29">
+      <c r="A38" s="10"/>
+      <c r="B38" s="9"/>
+      <c r="J38" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="K38" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB38" s="49" t="s">
+        <v>397</v>
+      </c>
+      <c r="AC38" s="40" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29">
+      <c r="A39" s="10"/>
+      <c r="B39" s="9"/>
+      <c r="J39" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="K39" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB39" s="36" t="s">
+        <v>398</v>
+      </c>
+      <c r="AC39" s="40" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29">
+      <c r="A40" s="10"/>
+      <c r="B40" s="9"/>
+      <c r="J40" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="K40" s="26" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A35" s="27"/>
-      <c r="B35" s="25"/>
-      <c r="J35" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="K35" s="15" t="s">
+      <c r="AB40" s="36" t="s">
+        <v>399</v>
+      </c>
+      <c r="AC40" s="40" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" ht="23.25" customHeight="1">
+      <c r="A41" s="10"/>
+      <c r="B41" s="9"/>
+      <c r="J41" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="K41" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB41" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="AC41" s="40" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29">
+      <c r="A42" s="10"/>
+      <c r="B42" s="9"/>
+      <c r="J42" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="K42" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB42" s="36" t="s">
+        <v>401</v>
+      </c>
+      <c r="AC42" s="40" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29">
+      <c r="A43" s="10"/>
+      <c r="B43" s="9"/>
+      <c r="J43" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="K43" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="AB43" s="54" t="s">
+        <v>413</v>
+      </c>
+      <c r="AC43" s="55" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" ht="30">
+      <c r="A44" s="10"/>
+      <c r="B44" s="9"/>
+      <c r="J44" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="K44" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB44" s="56" t="s">
+        <v>422</v>
+      </c>
+      <c r="AC44" s="57" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29">
+      <c r="A45" s="10"/>
+      <c r="B45" s="9"/>
+      <c r="J45" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="K45" s="37" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29">
+      <c r="A46" s="10"/>
+      <c r="B46" s="9"/>
+      <c r="J46" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="K46" s="37" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29">
+      <c r="A47" s="10"/>
+      <c r="B47" s="9"/>
+      <c r="J47" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="K47" s="37" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29">
+      <c r="J48" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="K48" s="37" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="49" spans="10:11">
+      <c r="J49" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="L35" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A36" s="26"/>
-      <c r="B36" s="25"/>
-      <c r="J36" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="K36" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L36" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" s="26"/>
-      <c r="B37" s="25"/>
-      <c r="J37" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="K37" s="15" t="s">
+      <c r="K49" s="19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="50" spans="10:11">
+      <c r="J50" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="K50" s="19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" spans="10:11">
+      <c r="J51" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="K51" s="19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="52" spans="10:11">
+      <c r="J52" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="K52" s="19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="53" spans="10:11">
+      <c r="J53" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="K53" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="54" spans="10:11">
+      <c r="J54" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="K54" s="19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="55" spans="10:11">
+      <c r="J55" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="K55" s="13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="56" spans="10:11">
+      <c r="J56" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="K56" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="57" spans="10:11">
+      <c r="J57" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="K57" s="13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="58" spans="10:11">
+      <c r="J58" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="K58" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="59" spans="10:11">
+      <c r="J59" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="K59" s="19" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A38" s="26"/>
-      <c r="B38" s="25"/>
-      <c r="J38" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="K38" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="L38" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A39" s="26"/>
-      <c r="B39" s="25"/>
-      <c r="J39" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="K39" s="15" t="s">
+    <row r="60" spans="10:11">
+      <c r="J60" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="K60" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="61" spans="10:11">
+      <c r="J61" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="K61" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="L39" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A40" s="26"/>
-      <c r="B40" s="25"/>
-      <c r="J40" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="K40" s="15" t="s">
+    </row>
+    <row r="62" spans="10:11">
+      <c r="J62" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="K62" s="19" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="26"/>
-      <c r="B41" s="25"/>
-      <c r="J41" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="K41" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="L41" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A42" s="26"/>
-      <c r="B42" s="25"/>
-      <c r="J42" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="K42" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L42" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A43" s="26"/>
-      <c r="B43" s="25"/>
-      <c r="J43" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="K43" s="15" t="s">
+    <row r="63" spans="10:11">
+      <c r="J63" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="K63" s="19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" spans="10:11">
+      <c r="J64" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="K64" s="19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="65" spans="10:11">
+      <c r="J65" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="K65" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="66" spans="10:11">
+      <c r="J66" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="K66" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="67" spans="10:11">
+      <c r="J67" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="K67" s="19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="68" spans="10:11">
+      <c r="J68" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="K68" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="69" spans="10:11">
+      <c r="J69" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="K69" s="19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="70" spans="10:11">
+      <c r="J70" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="K70" s="19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="71" spans="10:11">
+      <c r="J71" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="K71" s="63" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="72" spans="10:11">
+      <c r="J72" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="K72" s="63" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="73" spans="10:11">
+      <c r="J73" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="K73" s="63" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="74" spans="10:11">
+      <c r="J74" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="K74" s="63" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="75" spans="10:11">
+      <c r="J75" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="K75" s="63" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="76" spans="10:11">
+      <c r="J76" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="K76" s="63" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="77" spans="10:11">
+      <c r="J77" s="12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="78" spans="10:11">
+      <c r="J78" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="79" spans="10:11">
+      <c r="J79" s="45" t="s">
+        <v>337</v>
+      </c>
+      <c r="K79" s="37" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="80" spans="10:11">
+      <c r="J80" s="45" t="s">
+        <v>338</v>
+      </c>
+      <c r="K80" s="37" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="81" spans="10:12">
+      <c r="J81" s="45" t="s">
+        <v>339</v>
+      </c>
+      <c r="K81" s="37" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="82" spans="10:12">
+      <c r="J82" s="45" t="s">
+        <v>340</v>
+      </c>
+      <c r="K82" s="37" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="83" spans="10:12">
+      <c r="J83" s="45" t="s">
+        <v>341</v>
+      </c>
+      <c r="K83" s="37" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="84" spans="10:12">
+      <c r="J84" s="45" t="s">
+        <v>342</v>
+      </c>
+      <c r="K84" s="37" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="85" spans="10:12">
+      <c r="J85" s="45" t="s">
+        <v>343</v>
+      </c>
+      <c r="K85" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="L85" s="9"/>
+    </row>
+    <row r="86" spans="10:12">
+      <c r="J86" s="45" t="s">
+        <v>344</v>
+      </c>
+      <c r="K86" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="L86" s="9"/>
+    </row>
+    <row r="87" spans="10:12">
+      <c r="J87" s="45" t="s">
+        <v>345</v>
+      </c>
+      <c r="K87" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="L87" s="9"/>
+    </row>
+    <row r="88" spans="10:12">
+      <c r="J88" s="45" t="s">
+        <v>346</v>
+      </c>
+      <c r="K88" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="L88" s="9"/>
+    </row>
+    <row r="89" spans="10:12">
+      <c r="J89" s="45" t="s">
+        <v>347</v>
+      </c>
+      <c r="K89" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="L89" s="9"/>
+    </row>
+    <row r="90" spans="10:12">
+      <c r="J90" s="45" t="s">
+        <v>348</v>
+      </c>
+      <c r="K90" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="L90" s="9"/>
+    </row>
+    <row r="91" spans="10:12">
+      <c r="J91" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="K91" s="37" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="92" spans="10:12">
+      <c r="J92" s="36" t="s">
+        <v>350</v>
+      </c>
+      <c r="K92" s="37" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="93" spans="10:12">
+      <c r="J93" s="36" t="s">
+        <v>351</v>
+      </c>
+      <c r="K93" s="37" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="94" spans="10:12">
+      <c r="J94" s="36" t="s">
+        <v>352</v>
+      </c>
+      <c r="K94" s="37" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="95" spans="10:12">
+      <c r="J95" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="K95" s="37" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="96" spans="10:12">
+      <c r="J96" s="36" t="s">
+        <v>354</v>
+      </c>
+      <c r="K96" s="37" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="97" spans="10:11">
+      <c r="J97" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="K97" s="37" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="98" spans="10:11">
+      <c r="J98" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="K98" s="37" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="99" spans="10:11">
+      <c r="J99" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="K99" s="37" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="100" spans="10:11">
+      <c r="J100" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="K100" s="37" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="101" spans="10:11">
+      <c r="J101" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="K101" s="37" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="102" spans="10:11">
+      <c r="J102" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="K102" s="37" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="103" spans="10:11">
+      <c r="J103" s="42" t="s">
+        <v>361</v>
+      </c>
+      <c r="K103" s="37" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="104" spans="10:11">
+      <c r="J104" s="42" t="s">
+        <v>362</v>
+      </c>
+      <c r="K104" s="37" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="105" spans="10:11">
+      <c r="J105" s="42" t="s">
+        <v>363</v>
+      </c>
+      <c r="K105" s="37" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="106" spans="10:11">
+      <c r="J106" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="K106" s="37" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="107" spans="10:11">
+      <c r="J107" s="42" t="s">
+        <v>365</v>
+      </c>
+      <c r="K107" s="37" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="108" spans="10:11">
+      <c r="J108" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="K108" s="37" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="109" spans="10:11">
+      <c r="J109" s="44" t="s">
+        <v>367</v>
+      </c>
+      <c r="K109" s="43" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="110" spans="10:11">
+      <c r="J110" s="44" t="s">
+        <v>368</v>
+      </c>
+      <c r="K110" s="43" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="111" spans="10:11">
+      <c r="J111" s="44" t="s">
+        <v>369</v>
+      </c>
+      <c r="K111" s="43" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="112" spans="10:11">
+      <c r="J112" s="44" t="s">
+        <v>370</v>
+      </c>
+      <c r="K112" s="43" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="113" spans="10:11">
+      <c r="J113" s="44" t="s">
+        <v>371</v>
+      </c>
+      <c r="K113" s="43" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="114" spans="10:11">
+      <c r="J114" s="44" t="s">
+        <v>372</v>
+      </c>
+      <c r="K114" s="43" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A44" s="26"/>
-      <c r="B44" s="25"/>
-      <c r="J44" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="K44" s="15" t="s">
+    <row r="115" spans="10:11">
+      <c r="J115" s="42" t="s">
+        <v>373</v>
+      </c>
+      <c r="K115" s="43" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="116" spans="10:11">
+      <c r="J116" s="42" t="s">
+        <v>374</v>
+      </c>
+      <c r="K116" s="43" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="117" spans="10:11">
+      <c r="J117" s="42" t="s">
+        <v>375</v>
+      </c>
+      <c r="K117" s="43" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="118" spans="10:11">
+      <c r="J118" s="42" t="s">
+        <v>376</v>
+      </c>
+      <c r="K118" s="43" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="119" spans="10:11">
+      <c r="J119" s="42" t="s">
+        <v>377</v>
+      </c>
+      <c r="K119" s="43" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="120" spans="10:11">
+      <c r="J120" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="K120" s="43" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="121" spans="10:11">
+      <c r="J121" s="44" t="s">
+        <v>379</v>
+      </c>
+      <c r="K121" s="37" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="122" spans="10:11">
+      <c r="J122" s="44" t="s">
+        <v>380</v>
+      </c>
+      <c r="K122" s="37" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="123" spans="10:11">
+      <c r="J123" s="44" t="s">
+        <v>381</v>
+      </c>
+      <c r="K123" s="37" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="124" spans="10:11">
+      <c r="J124" s="44" t="s">
+        <v>382</v>
+      </c>
+      <c r="K124" s="37" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="125" spans="10:11">
+      <c r="J125" s="44" t="s">
+        <v>383</v>
+      </c>
+      <c r="K125" s="37" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="126" spans="10:11">
+      <c r="J126" s="44" t="s">
+        <v>384</v>
+      </c>
+      <c r="K126" s="37" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A45" s="26"/>
-      <c r="B45" s="25"/>
-      <c r="J45" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="K45" s="15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A46" s="26"/>
-      <c r="B46" s="25"/>
-      <c r="J46" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="K46" s="15" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A47" s="26"/>
-      <c r="B47" s="25"/>
-      <c r="J47" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="K47" s="15" t="s">
+    <row r="127" spans="10:11">
+      <c r="J127" s="44" t="s">
+        <v>385</v>
+      </c>
+      <c r="K127" s="43" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="128" spans="10:11">
+      <c r="J128" s="44" t="s">
+        <v>386</v>
+      </c>
+      <c r="K128" s="43" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="129" spans="10:11">
+      <c r="J129" s="44" t="s">
+        <v>387</v>
+      </c>
+      <c r="K129" s="43" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="130" spans="10:11">
+      <c r="J130" s="44" t="s">
+        <v>388</v>
+      </c>
+      <c r="K130" s="43" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="131" spans="10:11">
+      <c r="J131" s="44" t="s">
+        <v>389</v>
+      </c>
+      <c r="K131" s="43" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="132" spans="10:11">
+      <c r="J132" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="K132" s="43" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="133" spans="10:11">
+      <c r="J133" s="50" t="s">
+        <v>402</v>
+      </c>
+      <c r="K133" s="43" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="134" spans="10:11">
+      <c r="J134" s="50" t="s">
+        <v>403</v>
+      </c>
+      <c r="K134" s="43" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="135" spans="10:11">
+      <c r="J135" s="50" t="s">
+        <v>406</v>
+      </c>
+      <c r="K135" s="43" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="136" spans="10:11">
+      <c r="J136" s="50" t="s">
+        <v>404</v>
+      </c>
+      <c r="K136" s="43" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="137" spans="10:11">
+      <c r="J137" s="50" t="s">
+        <v>405</v>
+      </c>
+      <c r="K137" s="43" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="138" spans="10:11">
+      <c r="J138" s="50" t="s">
+        <v>407</v>
+      </c>
+      <c r="K138" s="43" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="J48" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="K48" s="15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="49" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J49" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="K49" s="20" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="50" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J50" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="K50" s="20" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="51" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J51" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="K51" s="20" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="52" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J52" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="K52" s="20" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="53" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J53" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="K53" s="20" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="54" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J54" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="K54" s="20" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="55" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J55" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="K55" s="21" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="56" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J56" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="K56" s="21" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="57" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J57" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="K57" s="21" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="58" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J58" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="K58" s="21" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="59" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J59" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="K59" s="20" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="60" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J60" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="K60" s="20" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="61" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J61" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="K61" s="20" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="62" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J62" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="K62" s="20" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="63" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J63" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="K63" s="20" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="64" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J64" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="K64" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="65" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J65" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="K65" s="20" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="66" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J66" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="K66" s="20" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="67" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J67" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="K67" s="20" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="68" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J68" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="K68" s="20" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="69" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J69" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="K69" s="20" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="70" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J70" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="K70" s="20" t="s">
-        <v>170</v>
+    <row r="139" spans="10:11">
+      <c r="J139" s="80" t="s">
+        <v>452</v>
+      </c>
+      <c r="K139" s="43" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AH1:AI1"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD1BD07-39EC-4932-AA6E-3FF28444CB00}">
+  <dimension ref="A1:AP139"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="33.28515625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" customWidth="1"/>
+    <col min="15" max="15" width="34.42578125" customWidth="1"/>
+    <col min="18" max="18" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="44.5703125" customWidth="1"/>
+    <col min="28" max="28" width="43.140625" customWidth="1"/>
+    <col min="29" max="29" width="26" customWidth="1"/>
+    <col min="31" max="31" width="25.140625" customWidth="1"/>
+    <col min="34" max="34" width="35.5703125" customWidth="1"/>
+    <col min="37" max="37" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.140625" customWidth="1"/>
+    <col min="41" max="41" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:42" ht="30" customHeight="1">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="V1" s="67" t="s">
+        <v>220</v>
+      </c>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="AB1" s="68" t="s">
+        <v>266</v>
+      </c>
+      <c r="AC1" s="68"/>
+      <c r="AE1" s="69" t="s">
+        <v>270</v>
+      </c>
+      <c r="AF1" s="69"/>
+      <c r="AH1" s="70" t="s">
+        <v>323</v>
+      </c>
+      <c r="AI1" s="70"/>
+      <c r="AK1" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="AL1" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>3.79</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="P2" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="S2" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="V2" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="W2" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="X2" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y2" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB2" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="AC2" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE2" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="AF2" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH2" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="AI2" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK2" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="AL2" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="AO2" s="52" t="s">
+        <v>409</v>
+      </c>
+      <c r="AP2" s="35" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" ht="30">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1.49</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="O3" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="P3" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="S3" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="W3" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y3" s="59" t="s">
+        <v>395</v>
+      </c>
+      <c r="AB3" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="AC3" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AF3" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="AI3" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK3" s="38" t="s">
+        <v>326</v>
+      </c>
+      <c r="AL3" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="AO3" s="52" t="s">
+        <v>410</v>
+      </c>
+      <c r="AP3" s="35" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" ht="30">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>456</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="O4" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="S4" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="V4" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="W4" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="X4" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y4" s="60" t="s">
+        <v>429</v>
+      </c>
+      <c r="AB4" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="AC4" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AF4" s="31" t="s">
+        <v>276</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="AI4" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK4" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="AL4" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="AO4" s="52" t="s">
+        <v>411</v>
+      </c>
+      <c r="AP4" s="35" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2.29</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="P5" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="S5" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="V5" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="W5" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="X5" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y5" s="60" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB5" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC5" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AF5" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AI5" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="AK5" s="54" t="s">
+        <v>414</v>
+      </c>
+      <c r="AL5" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="AO5" s="52" t="s">
+        <v>408</v>
+      </c>
+      <c r="AP5" s="53" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1.83</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="P6" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="S6" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="V6" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="W6" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="X6" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y6" s="60" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB6" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC6" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AF6" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AI6" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="AK6" s="54" t="s">
+        <v>415</v>
+      </c>
+      <c r="AL6" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="AO6" s="36" t="s">
+        <v>417</v>
+      </c>
+      <c r="AP6" s="40" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4">
+        <v>4.29</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="P7" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="S7" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="W7" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="X7" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y7" s="60" t="s">
+        <v>432</v>
+      </c>
+      <c r="AB7" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC7" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF7" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AI7" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="AO7" s="36" t="s">
+        <v>416</v>
+      </c>
+      <c r="AP7" s="40" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2.99</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="O8" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="P8" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="V8" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="W8" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="X8" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y8" s="60" t="s">
+        <v>429</v>
+      </c>
+      <c r="AB8" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="AC8" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="AF8" s="31" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1.99</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="O9" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="P9" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="V9" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="W9" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="X9" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y9" s="60" t="s">
+        <v>395</v>
+      </c>
+      <c r="AB9" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="AC9" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" ht="30">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4">
+        <v>5.29</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="O10" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="P10" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="V10" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="W10" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="X10" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y10" s="60" t="s">
+        <v>429</v>
+      </c>
+      <c r="AB10" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC10" s="15" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4">
+        <v>5.29</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="O11" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="P11" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="V11" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="W11" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="X11" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y11" s="59" t="s">
+        <v>395</v>
+      </c>
+      <c r="AB11" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="AC11" s="15" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4">
+        <v>5.29</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="O12" s="47" t="s">
+        <v>393</v>
+      </c>
+      <c r="P12" s="48" t="s">
+        <v>395</v>
+      </c>
+      <c r="V12" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="W12" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="X12" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y12" s="59" t="s">
+        <v>395</v>
+      </c>
+      <c r="AB12" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="AC12" s="15" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" ht="30">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4">
+        <v>6.79</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="O13" s="47" t="s">
+        <v>394</v>
+      </c>
+      <c r="P13" s="48" t="s">
+        <v>425</v>
+      </c>
+      <c r="V13" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="W13" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="X13" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y13" s="59" t="s">
+        <v>395</v>
+      </c>
+      <c r="AB13" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="AC13" s="15" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" ht="30">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4">
+        <v>6.79</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="O14" s="54" t="s">
+        <v>420</v>
+      </c>
+      <c r="P14" s="55" t="s">
+        <v>427</v>
+      </c>
+      <c r="V14" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="W14" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="AB14" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="AC14" s="15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" ht="30">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="4">
+        <v>7.79</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="O15" s="54" t="s">
+        <v>421</v>
+      </c>
+      <c r="P15" s="55" t="s">
+        <v>453</v>
+      </c>
+      <c r="V15" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="W15" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="AB15" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC15" s="15" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" ht="30">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="4">
+        <v>4.29</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="V16" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="W16" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="AB16" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="AC16" s="15" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1.79</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="V17" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="W17" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="AB17" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="AC17" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="4">
+        <v>2.99</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="V18" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="W18" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="AB18" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="AC18" s="15" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1.99</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="V19" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="W19" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="AB19" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AC19" s="15" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="4">
+        <v>8.99</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="V20" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="W20" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="AB20" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AC20" s="15" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="4">
+        <v>7.99</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J21" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="V21" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="W21" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="AB21" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AC21" s="1"/>
+    </row>
+    <row r="22" spans="1:29">
+      <c r="A22" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J22" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="V22" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="W22" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="AB22" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AC22" s="1"/>
+    </row>
+    <row r="23" spans="1:29">
+      <c r="A23" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J23" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="V23" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="W23" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="AB23" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="AC23" s="1"/>
+    </row>
+    <row r="24" spans="1:29">
+      <c r="A24" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J24" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB24" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="AC24" s="1"/>
+    </row>
+    <row r="25" spans="1:29">
+      <c r="A25" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J25" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB25" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="AC25" s="1"/>
+    </row>
+    <row r="26" spans="1:29">
+      <c r="D26" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J26" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="AC26" s="51" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29">
+      <c r="D27" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J27" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB27" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="AC27" s="51" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29">
+      <c r="B28" s="9"/>
+      <c r="D28" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J28" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB28" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="AC28" s="1"/>
+    </row>
+    <row r="29" spans="1:29">
+      <c r="B29" s="9"/>
+      <c r="D29" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J29" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB29" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AC29" s="1"/>
+    </row>
+    <row r="30" spans="1:29">
+      <c r="B30" s="9"/>
+      <c r="G30" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J30" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB30" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC30" s="1"/>
+    </row>
+    <row r="31" spans="1:29">
+      <c r="B31" s="9"/>
+      <c r="G31" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K31" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC31" s="1"/>
+    </row>
+    <row r="32" spans="1:29">
+      <c r="A32" s="11"/>
+      <c r="B32" s="9"/>
+      <c r="J32" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="K32" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB32" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AC32" s="1"/>
+    </row>
+    <row r="33" spans="1:30">
+      <c r="A33" s="11"/>
+      <c r="B33" s="9"/>
+      <c r="J33" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="K33" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB33" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="AC33" s="1"/>
+    </row>
+    <row r="34" spans="1:30">
+      <c r="A34" s="11"/>
+      <c r="B34" s="9"/>
+      <c r="J34" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="K34" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB34" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="AC34" s="1"/>
+    </row>
+    <row r="35" spans="1:30">
+      <c r="A35" s="11"/>
+      <c r="B35" s="9"/>
+      <c r="J35" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="K35" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB35" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="AC35" s="1"/>
+    </row>
+    <row r="36" spans="1:30">
+      <c r="A36" s="10"/>
+      <c r="B36" s="9"/>
+      <c r="J36" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="K36" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB36" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AC36" s="1"/>
+    </row>
+    <row r="37" spans="1:30">
+      <c r="A37" s="10"/>
+      <c r="B37" s="9"/>
+      <c r="J37" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="K37" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB37" s="36" t="s">
+        <v>396</v>
+      </c>
+      <c r="AC37" s="46" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30">
+      <c r="A38" s="10"/>
+      <c r="B38" s="9"/>
+      <c r="J38" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="K38" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB38" s="49" t="s">
+        <v>397</v>
+      </c>
+      <c r="AC38" s="65" t="s">
+        <v>436</v>
+      </c>
+      <c r="AD38" s="71"/>
+    </row>
+    <row r="39" spans="1:30">
+      <c r="A39" s="10"/>
+      <c r="B39" s="9"/>
+      <c r="J39" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="K39" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB39" s="36" t="s">
+        <v>398</v>
+      </c>
+      <c r="AC39" s="65" t="s">
+        <v>423</v>
+      </c>
+      <c r="AD39" s="71"/>
+    </row>
+    <row r="40" spans="1:30">
+      <c r="A40" s="10"/>
+      <c r="B40" s="9"/>
+      <c r="J40" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="K40" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB40" s="36" t="s">
+        <v>399</v>
+      </c>
+      <c r="AC40" s="65" t="s">
+        <v>439</v>
+      </c>
+      <c r="AD40" s="71"/>
+    </row>
+    <row r="41" spans="1:30" ht="23.25" customHeight="1">
+      <c r="A41" s="10"/>
+      <c r="B41" s="9"/>
+      <c r="J41" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="K41" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB41" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="AC41" s="65" t="s">
+        <v>436</v>
+      </c>
+      <c r="AD41" s="71"/>
+    </row>
+    <row r="42" spans="1:30">
+      <c r="A42" s="10"/>
+      <c r="B42" s="9"/>
+      <c r="J42" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="K42" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB42" s="36" t="s">
+        <v>401</v>
+      </c>
+      <c r="AC42" s="65" t="s">
+        <v>423</v>
+      </c>
+      <c r="AD42" s="71"/>
+    </row>
+    <row r="43" spans="1:30">
+      <c r="A43" s="10"/>
+      <c r="B43" s="9"/>
+      <c r="J43" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="K43" s="64" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB43" s="54" t="s">
+        <v>413</v>
+      </c>
+      <c r="AC43" s="55" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" ht="30">
+      <c r="A44" s="10"/>
+      <c r="B44" s="9"/>
+      <c r="J44" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="K44" s="64" t="s">
+        <v>311</v>
+      </c>
+      <c r="AB44" s="56" t="s">
+        <v>422</v>
+      </c>
+      <c r="AC44" s="66" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30">
+      <c r="A45" s="10"/>
+      <c r="B45" s="9"/>
+      <c r="J45" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="K45" s="64" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30">
+      <c r="A46" s="10"/>
+      <c r="B46" s="9"/>
+      <c r="J46" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="K46" s="64" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30">
+      <c r="A47" s="10"/>
+      <c r="B47" s="9"/>
+      <c r="J47" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="K47" s="64" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30">
+      <c r="J48" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="K48" s="64" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="49" spans="10:11">
+      <c r="J49" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="K49" s="19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="50" spans="10:11">
+      <c r="J50" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="K50" s="19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" spans="10:11">
+      <c r="J51" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="K51" s="19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="52" spans="10:11">
+      <c r="J52" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="K52" s="19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="53" spans="10:11">
+      <c r="J53" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="K53" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="54" spans="10:11">
+      <c r="J54" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="K54" s="19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="55" spans="10:11">
+      <c r="J55" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="K55" s="13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="56" spans="10:11">
+      <c r="J56" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="K56" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="57" spans="10:11">
+      <c r="J57" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="K57" s="13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="58" spans="10:11">
+      <c r="J58" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="K58" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="59" spans="10:11">
+      <c r="J59" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="K59" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="60" spans="10:11">
+      <c r="J60" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="K60" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="61" spans="10:11">
+      <c r="J61" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="K61" s="19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="62" spans="10:11">
+      <c r="J62" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="K62" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="63" spans="10:11">
+      <c r="J63" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="K63" s="19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" spans="10:11">
+      <c r="J64" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="K64" s="19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="65" spans="10:12">
+      <c r="J65" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="K65" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="66" spans="10:12">
+      <c r="J66" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="K66" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="67" spans="10:12">
+      <c r="J67" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="K67" s="19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="68" spans="10:12">
+      <c r="J68" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="K68" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="69" spans="10:12">
+      <c r="J69" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="K69" s="19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="70" spans="10:12">
+      <c r="J70" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="K70" s="19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="71" spans="10:12">
+      <c r="J71" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="K71" s="64" t="s">
+        <v>186</v>
+      </c>
+      <c r="L71" s="81">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="72" spans="10:12">
+      <c r="J72" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="K72" s="64" t="s">
+        <v>311</v>
+      </c>
+      <c r="L72" s="81">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="73" spans="10:12">
+      <c r="J73" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="K73" s="64" t="s">
+        <v>454</v>
+      </c>
+      <c r="L73" s="81">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="74" spans="10:12">
+      <c r="J74" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="K74" s="64" t="s">
+        <v>268</v>
+      </c>
+      <c r="L74" s="81">
+        <v>4.3900000000000006</v>
+      </c>
+    </row>
+    <row r="75" spans="10:12">
+      <c r="J75" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="K75" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="L75" s="81">
+        <v>4.8900000000000006</v>
+      </c>
+    </row>
+    <row r="76" spans="10:12">
+      <c r="J76" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="K76" s="64" t="s">
+        <v>269</v>
+      </c>
+      <c r="L76" s="81">
+        <v>5.3900000000000006</v>
+      </c>
+    </row>
+    <row r="77" spans="10:12">
+      <c r="J77" s="12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="78" spans="10:12">
+      <c r="J78" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="79" spans="10:12">
+      <c r="J79" s="45" t="s">
+        <v>337</v>
+      </c>
+      <c r="K79" s="64" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="80" spans="10:12">
+      <c r="J80" s="45" t="s">
+        <v>338</v>
+      </c>
+      <c r="K80" s="64" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="81" spans="10:11">
+      <c r="J81" s="45" t="s">
+        <v>339</v>
+      </c>
+      <c r="K81" s="64" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="82" spans="10:11">
+      <c r="J82" s="45" t="s">
+        <v>340</v>
+      </c>
+      <c r="K82" s="64" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="83" spans="10:11">
+      <c r="J83" s="45" t="s">
+        <v>341</v>
+      </c>
+      <c r="K83" s="64" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="84" spans="10:11">
+      <c r="J84" s="45" t="s">
+        <v>342</v>
+      </c>
+      <c r="K84" s="64" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="85" spans="10:11">
+      <c r="J85" s="45" t="s">
+        <v>343</v>
+      </c>
+      <c r="K85" s="64" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="86" spans="10:11">
+      <c r="J86" s="45" t="s">
+        <v>344</v>
+      </c>
+      <c r="K86" s="64" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="87" spans="10:11">
+      <c r="J87" s="45" t="s">
+        <v>345</v>
+      </c>
+      <c r="K87" s="64" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="88" spans="10:11">
+      <c r="J88" s="45" t="s">
+        <v>346</v>
+      </c>
+      <c r="K88" s="64" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="89" spans="10:11">
+      <c r="J89" s="45" t="s">
+        <v>347</v>
+      </c>
+      <c r="K89" s="64" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="90" spans="10:11">
+      <c r="J90" s="45" t="s">
+        <v>348</v>
+      </c>
+      <c r="K90" s="64" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="91" spans="10:11">
+      <c r="J91" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="K91" s="64" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="92" spans="10:11">
+      <c r="J92" s="36" t="s">
+        <v>350</v>
+      </c>
+      <c r="K92" s="64" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="93" spans="10:11">
+      <c r="J93" s="36" t="s">
+        <v>351</v>
+      </c>
+      <c r="K93" s="64" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="94" spans="10:11">
+      <c r="J94" s="36" t="s">
+        <v>352</v>
+      </c>
+      <c r="K94" s="64" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="95" spans="10:11">
+      <c r="J95" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="K95" s="64" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="96" spans="10:11">
+      <c r="J96" s="36" t="s">
+        <v>354</v>
+      </c>
+      <c r="K96" s="64" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="97" spans="10:12">
+      <c r="J97" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="K97" s="64" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="98" spans="10:12">
+      <c r="J98" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="K98" s="64" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="99" spans="10:12">
+      <c r="J99" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="K99" s="64" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="100" spans="10:12">
+      <c r="J100" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="K100" s="64" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="101" spans="10:12">
+      <c r="J101" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="K101" s="64" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="102" spans="10:12">
+      <c r="J102" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="K102" s="64" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="103" spans="10:12">
+      <c r="J103" s="42" t="s">
+        <v>361</v>
+      </c>
+      <c r="K103" s="64" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="104" spans="10:12">
+      <c r="J104" s="42" t="s">
+        <v>362</v>
+      </c>
+      <c r="K104" s="64" t="s">
+        <v>311</v>
+      </c>
+      <c r="L104" s="43" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="105" spans="10:12">
+      <c r="J105" s="42" t="s">
+        <v>363</v>
+      </c>
+      <c r="K105" s="64" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="106" spans="10:12">
+      <c r="J106" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="K106" s="64" t="s">
+        <v>268</v>
+      </c>
+      <c r="L106" s="43" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="107" spans="10:12">
+      <c r="J107" s="42" t="s">
+        <v>365</v>
+      </c>
+      <c r="K107" s="64" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="108" spans="10:12">
+      <c r="J108" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="K108" s="64" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="109" spans="10:12">
+      <c r="J109" s="44" t="s">
+        <v>367</v>
+      </c>
+      <c r="K109" s="43" t="s">
+        <v>440</v>
+      </c>
+      <c r="L109" s="82">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="110" spans="10:12">
+      <c r="J110" s="44" t="s">
+        <v>368</v>
+      </c>
+      <c r="K110" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="L110" s="82">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="111" spans="10:12">
+      <c r="J111" s="44" t="s">
+        <v>369</v>
+      </c>
+      <c r="K111" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="L111" s="82">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="112" spans="10:12">
+      <c r="J112" s="44" t="s">
+        <v>370</v>
+      </c>
+      <c r="K112" s="43" t="s">
+        <v>392</v>
+      </c>
+      <c r="L112" s="82">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="113" spans="10:12">
+      <c r="J113" s="44" t="s">
+        <v>371</v>
+      </c>
+      <c r="K113" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="L113" s="82">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="114" spans="10:12">
+      <c r="J114" s="44" t="s">
+        <v>372</v>
+      </c>
+      <c r="K114" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="L114" s="82">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="115" spans="10:12">
+      <c r="J115" s="42" t="s">
+        <v>373</v>
+      </c>
+      <c r="K115" s="43" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="116" spans="10:12">
+      <c r="J116" s="42" t="s">
+        <v>374</v>
+      </c>
+      <c r="K116" s="43" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="117" spans="10:12">
+      <c r="J117" s="42" t="s">
+        <v>375</v>
+      </c>
+      <c r="K117" s="43" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="118" spans="10:12">
+      <c r="J118" s="42" t="s">
+        <v>376</v>
+      </c>
+      <c r="K118" s="43" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="119" spans="10:12">
+      <c r="J119" s="42" t="s">
+        <v>377</v>
+      </c>
+      <c r="K119" s="43" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="120" spans="10:12">
+      <c r="J120" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="K120" s="43" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="121" spans="10:12">
+      <c r="J121" s="44" t="s">
+        <v>379</v>
+      </c>
+      <c r="K121" s="64" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="122" spans="10:12">
+      <c r="J122" s="44" t="s">
+        <v>380</v>
+      </c>
+      <c r="K122" s="64" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="123" spans="10:12">
+      <c r="J123" s="44" t="s">
+        <v>381</v>
+      </c>
+      <c r="K123" s="64" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="124" spans="10:12">
+      <c r="J124" s="44" t="s">
+        <v>382</v>
+      </c>
+      <c r="K124" s="64" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="125" spans="10:12">
+      <c r="J125" s="44" t="s">
+        <v>383</v>
+      </c>
+      <c r="K125" s="64" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="126" spans="10:12">
+      <c r="J126" s="44" t="s">
+        <v>384</v>
+      </c>
+      <c r="K126" s="64" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="127" spans="10:12">
+      <c r="J127" s="44" t="s">
+        <v>385</v>
+      </c>
+      <c r="K127" s="43" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="128" spans="10:12">
+      <c r="J128" s="44" t="s">
+        <v>386</v>
+      </c>
+      <c r="K128" s="43" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="129" spans="10:11">
+      <c r="J129" s="44" t="s">
+        <v>387</v>
+      </c>
+      <c r="K129" s="43" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="130" spans="10:11">
+      <c r="J130" s="44" t="s">
+        <v>388</v>
+      </c>
+      <c r="K130" s="43" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="131" spans="10:11">
+      <c r="J131" s="44" t="s">
+        <v>389</v>
+      </c>
+      <c r="K131" s="43" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="132" spans="10:11">
+      <c r="J132" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="K132" s="43" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="133" spans="10:11">
+      <c r="J133" s="50" t="s">
+        <v>402</v>
+      </c>
+      <c r="K133" s="64" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="134" spans="10:11">
+      <c r="J134" s="50" t="s">
+        <v>403</v>
+      </c>
+      <c r="K134" s="64" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="135" spans="10:11">
+      <c r="J135" s="50" t="s">
+        <v>406</v>
+      </c>
+      <c r="K135" s="64" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="136" spans="10:11">
+      <c r="J136" s="50" t="s">
+        <v>404</v>
+      </c>
+      <c r="K136" s="64" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="137" spans="10:11">
+      <c r="J137" s="50" t="s">
+        <v>405</v>
+      </c>
+      <c r="K137" s="64" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="138" spans="10:11">
+      <c r="J138" s="50" t="s">
+        <v>407</v>
+      </c>
+      <c r="K138" s="64" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="139" spans="10:11">
+      <c r="J139" s="80" t="s">
+        <v>452</v>
+      </c>
+      <c r="K139" s="43" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AH1:AI1"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="K71:K76">
+    <cfRule type="expression" dxfId="27" priority="27">
+      <formula>K71&lt;XDJ71</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="28">
+      <formula>K71&gt;XDJ71</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K121:K126">
+    <cfRule type="expression" dxfId="15" priority="15">
+      <formula>K121&lt;XDJ121</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="16">
+      <formula>K121&gt;XDJ121</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K133:K138">
+    <cfRule type="expression" dxfId="13" priority="13">
+      <formula>K133&lt;XDJ133</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="14">
+      <formula>K133&gt;XDJ133</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K79:K84">
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>K79&lt;XDJ79</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>K79&gt;XDJ79</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K85:K90">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>K85&lt;XDJ85</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>K85&gt;XDJ85</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K91:K96">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>K91&lt;XDJ91</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>K91&gt;XDJ91</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K97:K102">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>K97&lt;XDJ97</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>K97&gt;XDJ97</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K103:K108">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>K103&lt;XDJ103</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>K103&gt;XDJ103</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K43:K48">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>K43&lt;XDJ43</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>K43&gt;XDJ43</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4CFC24F-96E5-4484-96D3-843D17E703FA}">
+  <dimension ref="H6:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11:I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="8" max="8" width="30.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="8:9" ht="15.75" thickBot="1"/>
+    <row r="7" spans="8:9">
+      <c r="H7" s="72" t="s">
+        <v>447</v>
+      </c>
+      <c r="I7" s="73">
+        <v>7000068</v>
+      </c>
+    </row>
+    <row r="8" spans="8:9">
+      <c r="H8" s="74" t="s">
+        <v>448</v>
+      </c>
+      <c r="I8" s="75">
+        <v>7000061</v>
+      </c>
+    </row>
+    <row r="9" spans="8:9">
+      <c r="H9" s="74" t="s">
+        <v>449</v>
+      </c>
+      <c r="I9" s="75">
+        <v>7000076</v>
+      </c>
+    </row>
+    <row r="10" spans="8:9" ht="15.75" thickBot="1">
+      <c r="H10" s="76" t="s">
+        <v>450</v>
+      </c>
+      <c r="I10" s="77">
+        <v>7000096</v>
+      </c>
+    </row>
+    <row r="11" spans="8:9" ht="15.75" thickBot="1">
+      <c r="H11" s="78" t="s">
+        <v>451</v>
+      </c>
+      <c r="I11" s="79">
+        <v>7000035</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F34AF7CB-CEA5-4D2C-9DB4-631DE13E4521}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -2996,13 +8007,13 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.1796875" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3010,7 +8021,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -3018,7 +8029,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -3026,7 +8037,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -3034,7 +8045,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -3042,7 +8053,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" ht="16.5">
       <c r="A6" t="s">
         <v>32</v>
       </c>
